--- a/authors.xlsx
+++ b/authors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D368"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1198013</t>
+          <t>60229</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Муминов</t>
+          <t>Орешкин</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Сардорбек Абдулахат Угли</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,19 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1073107</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Елисавета Александровна</t>
         </is>
       </c>
     </row>
@@ -493,12 +497,12 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Соин</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Д.А.</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -506,19 +510,15 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>54011</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Киенская</t>
+          <t>Полудеткина</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>К.И.</t>
+          <t>Елена Николаевна</t>
         </is>
       </c>
     </row>
@@ -528,17 +528,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>925717</t>
+          <t>1112796</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Архипов</t>
+          <t>Бурлуцкий</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Алексей Игоревич</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Соколова</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Владимир Борисович</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>608438</t>
+          <t>1134023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Кузин</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Дмитрий Леонидович</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,19 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>548848</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Садреева</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Р.Х.</t>
+          <t>Юлия Геннадьевна</t>
         </is>
       </c>
     </row>
@@ -598,15 +602,19 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>923755</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Рыбаков</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Р.А.</t>
+          <t>Л.М.</t>
         </is>
       </c>
     </row>
@@ -614,19 +622,15 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>785395</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Печкина</t>
+          <t>Дунаева</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Юлия Александровна</t>
+          <t>В.И.</t>
         </is>
       </c>
     </row>
@@ -636,17 +640,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>733450</t>
+          <t>59800</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Крючков</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Максим Викторович</t>
+          <t>Юрий Абрамович</t>
         </is>
       </c>
     </row>
@@ -654,15 +658,19 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>595034</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Давыденко</t>
+          <t>Chernyshov</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Б.И.</t>
+          <t>Sergey</t>
         </is>
       </c>
     </row>
@@ -672,17 +680,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>881447</t>
+          <t>842607</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Юсупова</t>
+          <t>Лындин</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Искра Фаиковна</t>
+          <t>Виктор Николаевич</t>
         </is>
       </c>
     </row>
@@ -690,19 +698,15 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1045116</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Елисавета Александровна</t>
         </is>
       </c>
     </row>
@@ -713,12 +717,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Грунис</t>
+          <t>Skibitskaya</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Е.Б.</t>
+          <t>N.A.</t>
         </is>
       </c>
     </row>
@@ -729,12 +733,12 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Толмачева</t>
+          <t>Алиева</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Е.В.</t>
+          <t>Л.А.</t>
         </is>
       </c>
     </row>
@@ -742,19 +746,15 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1149161</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Афлятунов</t>
+          <t>Антонов</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Р.Р.</t>
+          <t>С.В.</t>
         </is>
       </c>
     </row>
@@ -764,17 +764,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>502793</t>
+          <t>1079671</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Д.С.</t>
+          <t>В.Е.</t>
         </is>
       </c>
     </row>
@@ -784,17 +784,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>924651</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Махутов</t>
+          <t>Гельфгат</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Михаил Яковлевич</t>
         </is>
       </c>
     </row>
@@ -804,17 +804,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>546858</t>
+          <t>893978</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Брусиловский</t>
+          <t>Ершов</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>А.И.</t>
+          <t>Алексей Валентинович</t>
         </is>
       </c>
     </row>
@@ -822,15 +822,19 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>113090</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Bünz</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>S.</t>
+          <t>Наталья Евгеньевна</t>
         </is>
       </c>
     </row>
@@ -840,17 +844,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>64377</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>К.С.</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -858,19 +862,15 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>174752</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lavrinovich</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Л.М.</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>656521</t>
+          <t>710603</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Лесин</t>
+          <t>Климов</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Виктор Иванович</t>
+          <t>Д.С.</t>
         </is>
       </c>
     </row>
@@ -898,19 +898,15 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1181957</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Шакиров</t>
+          <t>Садреева</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Равиль Рамильевич</t>
+          <t>Р.Х.</t>
         </is>
       </c>
     </row>
@@ -920,17 +916,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>924651</t>
+          <t>324542</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Гельфгат</t>
+          <t>Zakirov</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Михаил Яковлевич</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -941,12 +937,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Владимир Львович</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -962,7 +958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -970,19 +966,15 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>218196</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Закирова</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Олег Владимирович</t>
+          <t>Милена Римовна</t>
         </is>
       </c>
     </row>
@@ -990,19 +982,15 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>852301</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Остапчук</t>
+          <t>Хафизов</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>С.С.</t>
+          <t>С.Ф.</t>
         </is>
       </c>
     </row>
@@ -1010,19 +998,15 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>152569</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Чудин</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>V.N.</t>
+          <t>Егор Александрович</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1016,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>697348</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Базаревская</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>Инна Андреевна</t>
         </is>
       </c>
     </row>
@@ -1052,17 +1036,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>324542</t>
+          <t>819133</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Zakirov</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Наталья Вячеславовна</t>
         </is>
       </c>
     </row>
@@ -1072,17 +1056,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>58179</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Novikov</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Василий Игоревич</t>
         </is>
       </c>
     </row>
@@ -1092,17 +1076,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>166698</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Жилина</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Н.Е.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -1112,17 +1096,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>138669</t>
+          <t>1075365</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Юмашева</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Лейла Азретовна</t>
+          <t>Анастасия Константиновна</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1116,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>799191</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Пятибратов</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Петр Вадимович</t>
+          <t>А.</t>
         </is>
       </c>
     </row>
@@ -1152,17 +1136,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>960159</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Хорьков</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Сергей Алексеевич</t>
+          <t>Б.</t>
         </is>
       </c>
     </row>
@@ -1172,17 +1156,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1134643</t>
+          <t>64859</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Самохвалов</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Н.И.</t>
+          <t>М.П.</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1177,12 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Соколова</t>
+          <t>Селенгинский</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Дмитрий Андреевич</t>
         </is>
       </c>
     </row>
@@ -1209,12 +1193,12 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Куандыков</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Балтабек Муханович</t>
+          <t>Геннадий Алексеевич</t>
         </is>
       </c>
     </row>
@@ -1225,12 +1209,12 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Andreassen</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>И.Я.</t>
+          <t>K.</t>
         </is>
       </c>
     </row>
@@ -1240,17 +1224,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>332465</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Chernyshov</t>
+          <t>Исаева</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>Гюльнара Юсуповна</t>
         </is>
       </c>
     </row>
@@ -1258,19 +1242,15 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>174981</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Епишов</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Р.О.</t>
+          <t>А.П.</t>
         </is>
       </c>
     </row>
@@ -1278,19 +1258,15 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1090050</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Богомолов</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>Павел Владимирович</t>
         </is>
       </c>
     </row>
@@ -1300,17 +1276,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>529321</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Сергей Николаевич</t>
+          <t>Эльвира Ромуальдовна</t>
         </is>
       </c>
     </row>
@@ -1320,17 +1296,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>674140</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>И.О.</t>
+          <t>Б.Н.</t>
         </is>
       </c>
     </row>
@@ -1340,17 +1316,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1154710</t>
+          <t>785395</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Валиуллин</t>
+          <t>Печкина</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Юлия Александровна</t>
         </is>
       </c>
     </row>
@@ -1358,19 +1334,15 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>991650</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Путина</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>В.Б.</t>
+          <t>И.Б.</t>
         </is>
       </c>
     </row>
@@ -1378,15 +1350,19 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>138669</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Мо</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Цзяли</t>
+          <t>Лейла Азретовна</t>
         </is>
       </c>
     </row>
@@ -1394,15 +1370,19 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1089985</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Выломов</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Д.Л.</t>
+          <t>Денис Дмитриевич</t>
         </is>
       </c>
     </row>
@@ -1410,15 +1390,19 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>152569</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Кашапов</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>И.Х.</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1412,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>588413</t>
+          <t>529222</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Якубсон</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Елена Александровна</t>
+          <t>К.И.</t>
         </is>
       </c>
     </row>
@@ -1448,17 +1432,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>65352</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Рыбалко</t>
+          <t>Rodkin</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Александр Евменьевич</t>
+          <t>M.V.</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1453,12 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Lebedev</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>V.V.</t>
         </is>
       </c>
     </row>
@@ -1482,15 +1466,19 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>276872</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hubbard</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Василий Игоревич</t>
         </is>
       </c>
     </row>
@@ -1498,15 +1486,19 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>456276</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1508,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>799191</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Пятибратов</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>В.Е.</t>
+          <t>Петр Вадимович</t>
         </is>
       </c>
     </row>
@@ -1534,19 +1526,15 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>926628</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Сребродольская</t>
+          <t>Космачева</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Мария Андреевна</t>
+          <t>М.С.</t>
         </is>
       </c>
     </row>
@@ -1554,15 +1542,19 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>819136</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Алиева</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Л.А.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -1570,19 +1562,15 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1146</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Федонкин</t>
+          <t>Горева</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Михаил Александрович</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -1592,17 +1580,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>926628</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Сребродольская</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Мария Андреевна</t>
         </is>
       </c>
     </row>
@@ -1612,17 +1600,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>979019</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Лобжанидзе</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Н.Е.</t>
+          <t>В.И.</t>
         </is>
       </c>
     </row>
@@ -1632,17 +1620,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>59255</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Гарагаш</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>Борис</t>
         </is>
       </c>
     </row>
@@ -1652,17 +1640,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>318881</t>
+          <t>804891</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -1670,19 +1658,15 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>104322</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chigarev</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>B.N.</t>
+          <t>А.Г.</t>
         </is>
       </c>
     </row>
@@ -1692,17 +1676,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>338184</t>
+          <t>908621</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kargina</t>
+          <t>Пуго</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T.</t>
+          <t>Т.А.</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1696,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>103971</t>
+          <t>569074</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>С.Н.</t>
         </is>
       </c>
     </row>
@@ -1730,19 +1714,15 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>674140</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Соловьев</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ирина Оскаровна</t>
+          <t>Тимур Игоревич</t>
         </is>
       </c>
     </row>
@@ -1752,17 +1732,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>811069</t>
+          <t>881447</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Юсупова</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Роман Александрович</t>
+          <t>Искра Фаиковна</t>
         </is>
       </c>
     </row>
@@ -1770,19 +1750,15 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>445526</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>А.С.</t>
         </is>
       </c>
     </row>
@@ -1790,19 +1766,15 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>445526</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Куандыков</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>А.</t>
+          <t>Балтабек Муханович</t>
         </is>
       </c>
     </row>
@@ -1810,19 +1782,15 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1177993</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Аникеева</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Э.С.</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -1832,17 +1800,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>975548</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Глотов</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Наталья Евгеньевна</t>
+          <t>Антон Васильевич</t>
         </is>
       </c>
     </row>
@@ -1850,19 +1818,15 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>69927</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Куклина</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>С.Г.</t>
+          <t>Вера Владимировна</t>
         </is>
       </c>
     </row>
@@ -1872,17 +1836,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>819133</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>В.И.</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -1890,19 +1854,15 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1108922</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Данилова</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Елена Михайловна</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -1910,15 +1870,19 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>59255</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Богданов</t>
+          <t>Гарагаш</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Б.П.</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -1929,12 +1893,12 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Остапенко</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>М.П.</t>
+          <t>Денис Андреевич</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1909,12 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Роман Олегович</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1925,12 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Халиуллин</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Т.Ф.</t>
+          <t>В.Л.</t>
         </is>
       </c>
     </row>
@@ -1974,19 +1938,15 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>59800</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Serov</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Юрий Абрамович</t>
+          <t>P.</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1956,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>971910</t>
+          <t>1176378</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Бродт</t>
+          <t>Драбкина</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Л.В.</t>
+          <t>Анастасия Дмитриевна</t>
         </is>
       </c>
     </row>
@@ -2016,17 +1976,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>987645</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Ющенко</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Алексей Михайлович</t>
+          <t>Т.С.</t>
         </is>
       </c>
     </row>
@@ -2036,17 +1996,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>138669</t>
+          <t>70016</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Михайлов</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Л.А.</t>
+          <t>Николай Нилович</t>
         </is>
       </c>
     </row>
@@ -2054,19 +2014,15 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>971965</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Маврикиди</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ю.В.</t>
+          <t>Федор Иванович</t>
         </is>
       </c>
     </row>
@@ -2074,15 +2030,19 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>588398</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Куклина</t>
+          <t>Навроцкий</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Вера Владимировна</t>
+          <t>О.К.</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2053,12 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Serov</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>P.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -2106,15 +2066,19 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>331900</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Индрупский</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>И.М.</t>
         </is>
       </c>
     </row>
@@ -2124,17 +2088,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>841206</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Студеникина</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Людмила Алексеевна</t>
+          <t>Сергей Николаевич</t>
         </is>
       </c>
     </row>
@@ -2142,19 +2106,15 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>60304</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Елагин</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>М.В.</t>
+          <t>П.О.</t>
         </is>
       </c>
     </row>
@@ -2162,15 +2122,19 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>152569</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Дайзель</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Александр Владимирович</t>
+          <t>V.N.</t>
         </is>
       </c>
     </row>
@@ -2178,19 +2142,15 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>221582</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Хаматов</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>С.Н.</t>
+          <t>А.Р.</t>
         </is>
       </c>
     </row>
@@ -2198,15 +2158,19 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>218196</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mattingsdal</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>Олег Владимирович</t>
         </is>
       </c>
     </row>
@@ -2214,19 +2178,15 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>991650</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Петухова</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Владимир Борисович</t>
+          <t>Марина Викторовна</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2196,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>829491</t>
+          <t>54011</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Доманова</t>
+          <t>Киенская</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Е.Г.</t>
+          <t>К.И.</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2217,12 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Егоров</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>А.С.</t>
+          <t>Денис Сергеевич</t>
         </is>
       </c>
     </row>
@@ -2270,15 +2230,19 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>59816</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Закирова</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Милена Римовна</t>
+          <t>Анатолий Николаевич</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2253,12 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Зоя Тимофеевна</t>
+          <t>Владимир Борисович</t>
         </is>
       </c>
     </row>
@@ -2302,15 +2266,19 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>276872</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Bogoyavlensky</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Юлия Геннадьевна</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -2320,17 +2288,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1062006</t>
+          <t>1199525</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Лукова</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>И.Л.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -2338,19 +2306,15 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>166698</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Жилина</t>
+          <t>Савченко</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Е.Ю.</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2345,12 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Muratov</t>
+          <t>Кашапов</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>A.R.</t>
+          <t>И.Х.</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2360,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>674140</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Василий Игоревич</t>
+          <t>И.О.</t>
         </is>
       </c>
     </row>
@@ -2417,12 +2381,12 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Путина</t>
+          <t>Гумерова</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>И.Б.</t>
+          <t>Р.Р.</t>
         </is>
       </c>
     </row>
@@ -2430,19 +2394,15 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>534341</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Сотникова</t>
+          <t>Левдик</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>А.Г.</t>
+          <t>Всеволод Николаевич</t>
         </is>
       </c>
     </row>
@@ -2452,17 +2412,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>607750</t>
+          <t>167357</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Семигласов</t>
+          <t>Safonov</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Дмитрий Юрьевич</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -2470,15 +2430,19 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1112592</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Земляновский</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>Вадим Александрович</t>
         </is>
       </c>
     </row>
@@ -2486,15 +2450,19 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>991650</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>М.В.</t>
+          <t>Владимир Борисович</t>
         </is>
       </c>
     </row>
@@ -2504,17 +2472,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>908621</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Пуго</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Т.А.</t>
+          <t>Михаил Владимирович</t>
         </is>
       </c>
     </row>
@@ -2522,19 +2490,15 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>104322</t>
-        </is>
-      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Гулиев</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Борис</t>
+          <t>Ибрагим Саидович</t>
         </is>
       </c>
     </row>
@@ -2544,17 +2508,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>382667</t>
+          <t>841206</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Меркулов</t>
+          <t>Студеникина</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>О.И.</t>
+          <t>Людмила Алексеевна</t>
         </is>
       </c>
     </row>
@@ -2562,15 +2526,19 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1084975</t>
+        </is>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Каргина</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Татьяна Николаевна</t>
+          <t>Дина Сергеевна</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2549,12 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Елагин</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>П.О.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -2594,15 +2562,19 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>382667</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Меркулов</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Алексей Геннадьевич</t>
+          <t>О.И.</t>
         </is>
       </c>
     </row>
@@ -2612,17 +2584,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>548848</t>
+          <t>529321</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Юлия Геннадьевна</t>
+          <t>Э.Р.</t>
         </is>
       </c>
     </row>
@@ -2632,17 +2604,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>820348</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>М.К.</t>
+          <t>С.Н.</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2625,12 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Гулиев</t>
+          <t>Kats</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ибрагим Саидович</t>
+          <t>E.I.</t>
         </is>
       </c>
     </row>
@@ -2666,15 +2638,19 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1154710</t>
+        </is>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Полудеткина</t>
+          <t>Валиуллин</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Елена Николаевна</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -2684,17 +2660,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>842607</t>
+          <t>484931</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Лындин</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Виктор Николаевич</t>
+          <t>Владимир Львович</t>
         </is>
       </c>
     </row>
@@ -2704,17 +2680,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>923755</t>
+          <t>909288</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Марутян</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Л.М.</t>
+          <t>О.О.</t>
         </is>
       </c>
     </row>
@@ -2724,17 +2700,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>565541</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Шиловский</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Андрей Павлович</t>
         </is>
       </c>
     </row>
@@ -2744,17 +2720,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Федонкин</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Михаил Александрович</t>
         </is>
       </c>
     </row>
@@ -2764,17 +2740,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>65352</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Рыбалко</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Б.Н.</t>
+          <t>Александр Евменьевич</t>
         </is>
       </c>
     </row>
@@ -2782,19 +2758,15 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>710603</t>
-        </is>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Климов</t>
+          <t>Рен</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Д.С.</t>
+          <t>Шаоран</t>
         </is>
       </c>
     </row>
@@ -2802,19 +2774,15 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>132561</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Petrov</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>A.N.</t>
         </is>
       </c>
     </row>
@@ -2822,15 +2790,19 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>733450</t>
+        </is>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Гавриленко</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Сергей Иванович</t>
+          <t>Максим Викторович</t>
         </is>
       </c>
     </row>
@@ -2840,17 +2812,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>528186</t>
+          <t>64377</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Boldyrev</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>К.С.</t>
         </is>
       </c>
     </row>
@@ -2878,15 +2850,19 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>816046</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Роде</t>
+          <t>Степанкина</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Э.Д.</t>
+          <t>Ольга Александровна</t>
         </is>
       </c>
     </row>
@@ -2894,19 +2870,15 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1003999</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Алали</t>
+          <t>Халиуллин</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Валид</t>
+          <t>Т.Ф.</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2888,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>324542</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Закиров</t>
+          <t>Федоров</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Э.С.</t>
+          <t>Роман Юрьевич</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2908,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>975548</t>
+          <t>1062006</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Глотов</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Антон Васильевич</t>
+          <t>И.Л.</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2928,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>819133</t>
+          <t>69927</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Сергей Гельевич</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2948,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>816046</t>
+          <t>168284</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Степанкина</t>
+          <t>Самойлова</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ольга Александровна</t>
+          <t>Анна Васильевна</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2968,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>138669</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>O.S.</t>
+          <t>Л.А.</t>
         </is>
       </c>
     </row>
@@ -3014,15 +2986,19 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>956325</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Горева</t>
+          <t>Tsymbarovich</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>P.R.</t>
         </is>
       </c>
     </row>
@@ -3032,17 +3008,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>711489</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Сарданашвили</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Ольга Николаевна</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -3050,15 +3026,19 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>534346</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Андрей Сергеевич</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -3066,15 +3046,19 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1090050</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Воробьева</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Г.Н.</t>
+          <t>Александр Дмитриевич</t>
         </is>
       </c>
     </row>
@@ -3084,17 +3068,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>841215</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Телегина</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>I.</t>
+          <t>Елена Александровна</t>
         </is>
       </c>
     </row>
@@ -3102,15 +3086,19 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1160650</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Юсифов</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Рауф Юсифович</t>
+          <t>Яна Степановна</t>
         </is>
       </c>
     </row>
@@ -3120,17 +3108,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>523822</t>
+          <t>925717</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Гогоненков</t>
+          <t>Архипов</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Георгий Николаевич</t>
+          <t>Алексей Игоревич</t>
         </is>
       </c>
     </row>
@@ -3138,19 +3126,15 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>598399</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Молоков</t>
+          <t>Соин</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Петр Борисович</t>
+          <t>Д.А.</t>
         </is>
       </c>
     </row>
@@ -3158,19 +3142,15 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>807087</t>
-        </is>
-      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Gladkikh</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Evgeniy</t>
+          <t>И.Я.</t>
         </is>
       </c>
     </row>
@@ -3178,19 +3158,15 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>140195</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bilichenko</t>
+          <t>Pikina</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>I.</t>
+          <t>E.S.</t>
         </is>
       </c>
     </row>
@@ -3200,17 +3176,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>62552</t>
+          <t>1045116</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Александр Михайлович</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3197,12 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Шульгин</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Павел Алексеевич</t>
+          <t>Михаил Викторович</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3213,12 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Дунаева</t>
+          <t>Роде</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>В.И.</t>
+          <t>Э.Д.</t>
         </is>
       </c>
     </row>
@@ -3250,15 +3226,19 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>588413</t>
+        </is>
+      </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Суслов</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Елена Александровна</t>
         </is>
       </c>
     </row>
@@ -3266,15 +3246,19 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>152569</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Хаматов</t>
+          <t>Курьяков</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>А.Р.</t>
+          <t>В.Н.</t>
         </is>
       </c>
     </row>
@@ -3282,19 +3266,15 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>588413</t>
-        </is>
-      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Рыбаков</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>Р.А.</t>
         </is>
       </c>
     </row>
@@ -3302,19 +3282,15 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>1134023</t>
-        </is>
-      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Федаш</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Д.Л.</t>
+          <t>Анатолий Владимирович</t>
         </is>
       </c>
     </row>
@@ -3322,19 +3298,15 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>968113</t>
-        </is>
-      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Утопленников</t>
+          <t>Чигарёв</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Владимир Константинович</t>
+          <t>Б.Н.</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3316,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>167593</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Никулин</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Б.А.</t>
+          <t>О.В.</t>
         </is>
       </c>
     </row>
@@ -3364,17 +3336,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1134023</t>
+          <t>979019</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Лобжанидзе</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Дмитрий Леонидович</t>
+          <t>Н.Е.</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3357,12 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Космачева</t>
+          <t>Щукин</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>М.С.</t>
+          <t>Г.Г.</t>
         </is>
       </c>
     </row>
@@ -3400,17 +3372,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1135782</t>
+          <t>588413</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Бакиров</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Нияз Радилович</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -3420,17 +3392,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t>820348</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Александр Дмитриевич</t>
+          <t>М.К.</t>
         </is>
       </c>
     </row>
@@ -3440,17 +3412,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1176378</t>
+          <t>655381</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Драбкина</t>
+          <t>Сечина</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Анастасия Дмитриевна</t>
+          <t>Лариса Сергеевна</t>
         </is>
       </c>
     </row>
@@ -3458,15 +3430,19 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>445526</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Patton</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>H.</t>
+          <t>А.</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3450,15 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>534346</t>
-        </is>
-      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Дайзель</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>Александр Владимирович</t>
         </is>
       </c>
     </row>
@@ -3494,15 +3466,19 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1016841</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Хафизов</t>
+          <t>Залятдинов</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>С.Ф.</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -3512,17 +3488,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Fedorov</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Василий Игоревич</t>
+          <t>R.Yu.</t>
         </is>
       </c>
     </row>
@@ -3532,17 +3508,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>979172</t>
+          <t>460222</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Афанасьева</t>
+          <t>Федорова</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Мария Александровна</t>
+          <t>Елена Борисовна</t>
         </is>
       </c>
     </row>
@@ -3550,15 +3526,19 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1180298</t>
+        </is>
+      </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Сурначев</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>В.Л.</t>
+          <t>Дмитрий Владимирович</t>
         </is>
       </c>
     </row>
@@ -3566,19 +3546,15 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>60229</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Орешкин</t>
+          <t>Пахомов</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Андрей Львович</t>
         </is>
       </c>
     </row>
@@ -3588,17 +3564,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1089985</t>
+          <t>1067241</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Выломов</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Денис Дмитриевич</t>
+          <t>К.В.</t>
         </is>
       </c>
     </row>
@@ -3608,17 +3584,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>70016</t>
+          <t>120886</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Михайлов</t>
+          <t>Rasputina</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Николай Нилович</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -3626,15 +3602,19 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>940368</t>
+        </is>
+      </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Савченко</t>
+          <t>Токарев</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Е.Ю.</t>
+          <t>Михаил Юрьевич</t>
         </is>
       </c>
     </row>
@@ -3642,15 +3622,19 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>595034</t>
+        </is>
+      </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Л.М.</t>
+          <t>С.Е.</t>
         </is>
       </c>
     </row>
@@ -3658,19 +3642,15 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>1076517</t>
-        </is>
-      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Emel'yanov</t>
+          <t>Паэглит</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>С.И.</t>
         </is>
       </c>
     </row>
@@ -3678,15 +3658,19 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>62552</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Богомолов</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Павел Владимирович</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -3696,17 +3680,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>139213</t>
+          <t>830087</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Кудрявцев</t>
+          <t>Гурова</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Александр Алексеевич</t>
+          <t>Диана Ирхамовна</t>
         </is>
       </c>
     </row>
@@ -3714,15 +3698,19 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>534346</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Оганов</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Г.С.</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -3730,15 +3718,19 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>569074</t>
+        </is>
+      </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>Сергей Николаевич</t>
         </is>
       </c>
     </row>
@@ -3746,19 +3738,15 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>761852</t>
-        </is>
-      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ерофеева</t>
+          <t>Могучева</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>Екатерина Александровна</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3757,12 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Andreassen</t>
+          <t>Butakov</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>D.K.</t>
         </is>
       </c>
     </row>
@@ -3784,17 +3772,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1112592</t>
+          <t>829491</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Земляновский</t>
+          <t>Доманова</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>Е.Г.</t>
         </is>
       </c>
     </row>
@@ -3804,17 +3792,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>674140</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Михаил Владимирович</t>
+          <t>Ирина Оскаровна</t>
         </is>
       </c>
     </row>
@@ -3822,19 +3810,15 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>595034</t>
-        </is>
-      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Агзамов</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Сергей Евгеньевич</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -3842,19 +3826,15 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>890229</t>
-        </is>
-      </c>
+      <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Варушкин</t>
+          <t>Воробьева</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>С.В.</t>
+          <t>Г.Н.</t>
         </is>
       </c>
     </row>
@@ -3864,17 +3844,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>167357</t>
+          <t>523822</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Safonov</t>
+          <t>Гогоненков</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Георгий Николаевич</t>
         </is>
       </c>
     </row>
@@ -3884,17 +3864,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>710603</t>
+          <t>1135782</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Klimov</t>
+          <t>Бакиров</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>D.</t>
+          <t>Нияз Радилович</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3882,14 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1057679</t>
+        </is>
+      </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Громыко</t>
+          <t>Кишанков</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -3920,17 +3904,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1160650</t>
+          <t>612772</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Дроздов</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Яна Степановна</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -3940,17 +3924,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>608396</t>
+          <t>69927</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Аникеев</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Д.П.</t>
+          <t>С.Г.</t>
         </is>
       </c>
     </row>
@@ -3960,17 +3944,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1090961</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>O.S.</t>
         </is>
       </c>
     </row>
@@ -3978,19 +3962,15 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>569074</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Mattingsdal</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Сергей Николаевич</t>
+          <t>R.</t>
         </is>
       </c>
     </row>
@@ -4000,17 +3980,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>64859</t>
+          <t>139213</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Кудрявцев</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>М.П.</t>
+          <t>Александр Алексеевич</t>
         </is>
       </c>
     </row>
@@ -4018,19 +3998,15 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>612772</t>
-        </is>
-      </c>
+      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Дроздов</t>
+          <t>Грунис</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>Е.Б.</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4017,7 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Vadakkepuliyambatta</t>
+          <t>Bünz</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4056,17 +4032,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>460222</t>
+          <t>711489</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Федорова</t>
+          <t>Сарданашвили</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Елена Борисовна</t>
+          <t>Ольга Николаевна</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4052,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>331900</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Индрупский</t>
+          <t>Махутов</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>И.М.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -4094,19 +4070,15 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>830581</t>
-        </is>
-      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Попова</t>
+          <t>Суслов</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Марина Николаевна</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4088,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>804891</t>
+          <t>1192730</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>А.Э.</t>
         </is>
       </c>
     </row>
@@ -4134,15 +4106,19 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>602242</t>
+        </is>
+      </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Гордеева</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ольга Владимировна</t>
+          <t>Олег Сергеевич</t>
         </is>
       </c>
     </row>
@@ -4150,19 +4126,15 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>59800</t>
-        </is>
-      </c>
+      <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Vadakkepuliyambatta</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Ю.А.</t>
+          <t>S.</t>
         </is>
       </c>
     </row>
@@ -4170,15 +4142,19 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1127117</t>
+        </is>
+      </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Селенгинский</t>
+          <t>Гарифуллина</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Дмитрий Андреевич</t>
+          <t>Ч.А.</t>
         </is>
       </c>
     </row>
@@ -4188,17 +4164,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t>842888</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Шулейкин</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Владимир Львович</t>
+          <t>В.Н.</t>
         </is>
       </c>
     </row>
@@ -4206,19 +4182,15 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>720479</t>
-        </is>
-      </c>
+      <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Каушанский</t>
+          <t>Богданов</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Давид Аронович</t>
+          <t>Б.П.</t>
         </is>
       </c>
     </row>
@@ -4228,17 +4200,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>890229</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Варушкин</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>С.Е.</t>
+          <t>С.В.</t>
         </is>
       </c>
     </row>
@@ -4248,17 +4220,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>708974</t>
+          <t>59816</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Юрова</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Маргарита Павловна</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -4266,15 +4238,19 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>602242</t>
+        </is>
+      </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Щукин</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Г.Г.</t>
+          <t>O.</t>
         </is>
       </c>
     </row>
@@ -4284,17 +4260,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>820348</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Popov</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Михаил Константинович</t>
+          <t>Sergey</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4281,12 @@
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Федаш</t>
+          <t>Максимов</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Анатолий Владимирович</t>
+          <t>А.Л.</t>
         </is>
       </c>
     </row>
@@ -4320,17 +4296,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>534346</t>
+          <t>996419</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Рыбальченко</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>В.В.</t>
         </is>
       </c>
     </row>
@@ -4340,17 +4316,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1180298</t>
+          <t>770074</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Сурначев</t>
+          <t>Krasnoshtanova</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Дмитрий Владимирович</t>
+          <t>N.</t>
         </is>
       </c>
     </row>
@@ -4360,17 +4336,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>807087</t>
+          <t>174981</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Гладких</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Евгений Александрович</t>
+          <t>Р.О.</t>
         </is>
       </c>
     </row>
@@ -4378,15 +4354,19 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1156414</t>
+        </is>
+      </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Чудин</t>
+          <t>Макаренко</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Егор Александрович</t>
+          <t>Елизавета Валерьевна</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4377,12 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Магомедгаджиева</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>М.А.</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4392,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>743652</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Fedorov</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>R.Yu.</t>
+          <t>Чингиз Саибович</t>
         </is>
       </c>
     </row>
@@ -4430,19 +4410,15 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>321532</t>
-        </is>
-      </c>
+      <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Жеребятьева</t>
+          <t>Kuklina</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -4450,19 +4426,15 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>1062006</t>
-        </is>
-      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ирина Леонидовна</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -4470,15 +4442,19 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>140195</t>
+        </is>
+      </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>Bilichenko</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A.N.</t>
+          <t>I.</t>
         </is>
       </c>
     </row>
@@ -4486,15 +4462,19 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>979172</t>
+        </is>
+      </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Bogdanov</t>
+          <t>Афанасьева</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Мария Александровна</t>
         </is>
       </c>
     </row>
@@ -4504,17 +4484,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>830087</t>
+          <t>830581</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Гурова</t>
+          <t>Попова</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Диана Ирхамовна</t>
+          <t>Марина Николаевна</t>
         </is>
       </c>
     </row>
@@ -4522,15 +4502,19 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>103971</t>
+        </is>
+      </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Пахомов</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Андрей Львович</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -4540,17 +4524,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>971965</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Popov</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>Ю.В.</t>
         </is>
       </c>
     </row>
@@ -4560,17 +4544,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>345331</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Б.</t>
+          <t>К.В.</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4565,12 @@
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Петухова</t>
+          <t>Каргина</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Марина Викторовна</t>
+          <t>Татьяна Николаевна</t>
         </is>
       </c>
     </row>
@@ -4594,19 +4578,15 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>132561</t>
-        </is>
-      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Киль</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Анна Олеговна</t>
         </is>
       </c>
     </row>
@@ -4616,17 +4596,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1084975</t>
+          <t>708974</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Юрова</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Дина Сергеевна</t>
+          <t>Маргарита Павловна</t>
         </is>
       </c>
     </row>
@@ -4634,15 +4614,19 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>466464</t>
+        </is>
+      </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Хисамов</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>Р.С.</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4636,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1045116</t>
+          <t>710603</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Klimov</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Николай Владиславович</t>
+          <t>D.</t>
         </is>
       </c>
     </row>
@@ -4670,15 +4654,19 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>968113</t>
+        </is>
+      </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Утопленников</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Владимир Константинович</t>
         </is>
       </c>
     </row>
@@ -4688,17 +4676,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Инна Андреевна</t>
+          <t>М.В.</t>
         </is>
       </c>
     </row>
@@ -4708,17 +4696,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>119121</t>
+          <t>143647</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Демченко</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Н.П.</t>
+          <t>Наталья Александровна</t>
         </is>
       </c>
     </row>
@@ -4726,19 +4714,15 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>1073107</t>
-        </is>
-      </c>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Patton</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Елисавета Александровна</t>
+          <t>H.</t>
         </is>
       </c>
     </row>
@@ -4746,19 +4730,15 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>602242</t>
-        </is>
-      </c>
+      <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>О.С.</t>
+          <t>Владимир Львович</t>
         </is>
       </c>
     </row>
@@ -4768,17 +4748,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>565541</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Шиловский</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Андрей Павлович</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -4808,17 +4788,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>332465</t>
+          <t>1198013</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Исаева</t>
+          <t>Муминов</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Гюльнара Юсуповна</t>
+          <t>Сардорбек Абдулахат Угли</t>
         </is>
       </c>
     </row>
@@ -4828,17 +4808,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>59235</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Любушин</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Ирина Каплановна</t>
+          <t>Алексей Александрович</t>
         </is>
       </c>
     </row>
@@ -4846,15 +4826,19 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>167593</t>
+        </is>
+      </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Никулин</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Полина Николаевна</t>
+          <t>Б.А.</t>
         </is>
       </c>
     </row>
@@ -4862,19 +4846,15 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>655056</t>
-        </is>
-      </c>
+      <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>Юлия Геннадьевна</t>
         </is>
       </c>
     </row>
@@ -4882,19 +4862,15 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>1199525</t>
-        </is>
-      </c>
+      <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Лукова</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Зоя Тимофеевна</t>
         </is>
       </c>
     </row>
@@ -4902,19 +4878,15 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>563529</t>
-        </is>
-      </c>
+      <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Юсифов</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>G.</t>
+          <t>Рауф Юсифович</t>
         </is>
       </c>
     </row>
@@ -4924,17 +4896,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1156414</t>
+          <t>119121</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Макаренко</t>
+          <t>Демченко</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Елизавета Валерьевна</t>
+          <t>Н.П.</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4917,12 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Мо</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>А.С.</t>
+          <t>Цзяли</t>
         </is>
       </c>
     </row>
@@ -4960,17 +4932,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>893978</t>
+          <t>1195322</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Ершов</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Алексей Валентинович</t>
+          <t>Дмитрий Сергеевич</t>
         </is>
       </c>
     </row>
@@ -4980,17 +4952,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>654135</t>
+          <t>1113614</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Риле</t>
+          <t>Коновалова</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Елена Борисовна</t>
+          <t>Ирина Николаевна</t>
         </is>
       </c>
     </row>
@@ -5000,17 +4972,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>783485</t>
+          <t>396398</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Патина</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>И.С.</t>
+          <t>Александр Иванович</t>
         </is>
       </c>
     </row>
@@ -5020,17 +4992,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>819133</t>
+          <t>113090</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Наталья Вячеславовна</t>
+          <t>Н.Е.</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5013,12 @@
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Остапенко</t>
+          <t>Шульгин</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Денис Андреевич</t>
+          <t>Павел Алексеевич</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5028,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>143647</t>
+          <t>1079671</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Наталья Александровна</t>
+          <t>Владимир Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -5074,15 +5046,19 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1062006</t>
+        </is>
+      </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Мичугин</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Максим Сергеевич</t>
+          <t>Ирина Леонидовна</t>
         </is>
       </c>
     </row>
@@ -5090,15 +5066,19 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>524537</t>
+        </is>
+      </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Kats</t>
+          <t>Zimina</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>E.I.</t>
+          <t>O.Yu.</t>
         </is>
       </c>
     </row>
@@ -5106,15 +5086,19 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1003999</t>
+        </is>
+      </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Киль</t>
+          <t>Алали</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Анна Олеговна</t>
+          <t>Валид</t>
         </is>
       </c>
     </row>
@@ -5122,19 +5106,15 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>602242</t>
-        </is>
-      </c>
+      <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Kuzmin</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>O.</t>
+          <t>V.A.</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5125,12 @@
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Pikina</t>
+          <t>Оганов</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>E.S.</t>
+          <t>Г.С.</t>
         </is>
       </c>
     </row>
@@ -5158,19 +5138,15 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>1113614</t>
-        </is>
-      </c>
+      <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Коновалова</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Ирина Николаевна</t>
+          <t>Полина Николаевна</t>
         </is>
       </c>
     </row>
@@ -5178,15 +5154,19 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>646094</t>
+        </is>
+      </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Мелехин</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Геннадий Алексеевич</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -5196,17 +5176,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>1090961</t>
+          <t>743652</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>Ч.С.</t>
         </is>
       </c>
     </row>
@@ -5214,15 +5194,19 @@
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>654135</t>
+        </is>
+      </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Зарипова</t>
+          <t>Риле</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Л.Ф.</t>
+          <t>Елена Борисовна</t>
         </is>
       </c>
     </row>
@@ -5232,17 +5216,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>59816</t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Bogoyavlensky</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>I.</t>
         </is>
       </c>
     </row>
@@ -5252,17 +5236,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>569074</t>
+          <t>58179</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Novikov</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>С.Н.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -5272,17 +5256,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>987645</t>
+          <t>598915</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Ющенко</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Т.С.</t>
+          <t>Виктор Алексеевич</t>
         </is>
       </c>
     </row>
@@ -5290,15 +5274,19 @@
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>59800</t>
+        </is>
+      </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Епишов</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>А.П.</t>
+          <t>Ю.А.</t>
         </is>
       </c>
     </row>
@@ -5306,19 +5294,15 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>1051084</t>
-        </is>
-      </c>
+      <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Зинатуллина</t>
+          <t>Гордеева</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Лилия Ильдаровна</t>
+          <t>Ольга Владимировна</t>
         </is>
       </c>
     </row>
@@ -5328,17 +5312,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>1090961</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>И.К.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -5348,17 +5332,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>12271</t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Куликов</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>В.Д.</t>
+          <t>Ирина Каплановна</t>
         </is>
       </c>
     </row>
@@ -5368,17 +5352,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>524537</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Zimina</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>O.Yu.</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -5386,15 +5370,19 @@
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>975561</t>
+        </is>
+      </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Максимов</t>
+          <t>Kazanin</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>А.Л.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -5402,19 +5390,15 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>529321</t>
-        </is>
-      </c>
+      <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Эльвира Ромуальдовна</t>
+          <t>Д.Л.</t>
         </is>
       </c>
     </row>
@@ -5422,15 +5406,19 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>849344</t>
+        </is>
+      </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Паэглит</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>С.И.</t>
+          <t>И.К.</t>
         </is>
       </c>
     </row>
@@ -5438,15 +5426,19 @@
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1181957</t>
+        </is>
+      </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Шакиров</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Сергей Петрович</t>
+          <t>Равиль Рамильевич</t>
         </is>
       </c>
     </row>
@@ -5454,19 +5446,15 @@
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>956325</t>
-        </is>
-      </c>
+      <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Tsymbarovich</t>
+          <t>Беляев</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>P.R.</t>
+          <t>С.Г.</t>
         </is>
       </c>
     </row>
@@ -5474,19 +5462,15 @@
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>602242</t>
-        </is>
-      </c>
+      <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Олег Сергеевич</t>
+          <t>В.Б.</t>
         </is>
       </c>
     </row>
@@ -5494,15 +5478,19 @@
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>143647</t>
+        </is>
+      </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>А.Г.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -5510,19 +5498,15 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>529222</t>
-        </is>
-      </c>
+      <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Якубсон</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>К.И.</t>
+          <t>Андрей Сергеевич</t>
         </is>
       </c>
     </row>
@@ -5532,17 +5516,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>696074</t>
+          <t>62552</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Халова</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Гюльнар Османовна</t>
+          <t>Александр Михайлович</t>
         </is>
       </c>
     </row>
@@ -5550,15 +5534,19 @@
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="inlineStr"/>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>778517</t>
+        </is>
+      </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Беляев</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>С.Г.</t>
+          <t>Михаил Николаевич</t>
         </is>
       </c>
     </row>
@@ -5568,17 +5556,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>143647</t>
+          <t>1006242</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Ибрагимов</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>И.И.</t>
         </is>
       </c>
     </row>
@@ -5588,17 +5576,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t>926031</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Пономаренко</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>О.М.</t>
         </is>
       </c>
     </row>
@@ -5606,19 +5594,15 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>655056</t>
-        </is>
-      </c>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Гавриленко</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Сергей Иванович</t>
         </is>
       </c>
     </row>
@@ -5626,15 +5610,19 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>608396</t>
+        </is>
+      </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Могучева</t>
+          <t>Аникеев</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Екатерина Александровна</t>
+          <t>Д.П.</t>
         </is>
       </c>
     </row>
@@ -5644,17 +5632,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>646094</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Мелехин</t>
+          <t>Gladkikh</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Evgeniy</t>
         </is>
       </c>
     </row>
@@ -5664,17 +5652,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>594065</t>
+          <t>598399</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Хитров</t>
+          <t>Молоков</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Алексей Михайлович</t>
+          <t>Петр Борисович</t>
         </is>
       </c>
     </row>
@@ -5682,15 +5670,19 @@
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="inlineStr"/>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>991650</t>
+        </is>
+      </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Rodygina</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>N.</t>
+          <t>В.Б.</t>
         </is>
       </c>
     </row>
@@ -5700,17 +5692,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>69386</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Милетенко</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>А.</t>
+          <t>Николай Васильевич</t>
         </is>
       </c>
     </row>
@@ -5720,17 +5712,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1112796</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Бурлуцкий</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>Андрей</t>
         </is>
       </c>
     </row>
@@ -5740,17 +5732,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>1192730</t>
+          <t>321532</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Жеребятьева</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>А.Э.</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -5758,15 +5750,19 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="inlineStr"/>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1045116</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Маврикиди</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Федор Иванович</t>
+          <t>Николай Владиславович</t>
         </is>
       </c>
     </row>
@@ -5776,17 +5772,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>1006242</t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Ибрагимов</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>И.И.</t>
+          <t>Игорь Васильевич</t>
         </is>
       </c>
     </row>
@@ -5794,15 +5790,19 @@
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>594065</t>
+        </is>
+      </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Kuzmin</t>
+          <t>Хитров</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>V.A.</t>
+          <t>Алексей Михайлович</t>
         </is>
       </c>
     </row>
@@ -5812,17 +5812,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>466464</t>
+          <t>852301</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Хисамов</t>
+          <t>Остапчук</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Р.С.</t>
+          <t>С.С.</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5832,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1067241</t>
+          <t>1177993</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Аникеева</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>К.В.</t>
+          <t>Э.С.</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>546858</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Брусиловский</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>О.В.</t>
+          <t>А.И.</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>120886</t>
+          <t>528186</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Rasputina</t>
+          <t>Boldyrev</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>K.</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Бухарин</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Дина Сергеевна</t>
+          <t>Михаил Андреевич</t>
         </is>
       </c>
     </row>
@@ -5906,19 +5906,15 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>318881</t>
-        </is>
-      </c>
+      <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Николай Александрович</t>
+          <t>Дина Сергеевна</t>
         </is>
       </c>
     </row>
@@ -5928,17 +5924,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>59816</t>
+          <t>12271</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Куликов</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Анатолий Николаевич</t>
+          <t>В.Д.</t>
         </is>
       </c>
     </row>
@@ -5949,12 +5945,12 @@
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5961,12 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Дедученко</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Анатолий Владимирович</t>
+          <t>Ф.М.</t>
         </is>
       </c>
     </row>
@@ -5978,19 +5974,15 @@
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>396398</t>
-        </is>
-      </c>
+      <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Давыденко</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Александр Иванович</t>
+          <t>Б.И.</t>
         </is>
       </c>
     </row>
@@ -6000,17 +5992,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>770074</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Krasnoshtanova</t>
+          <t>Гладких</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>N.</t>
+          <t>Евгений Александрович</t>
         </is>
       </c>
     </row>
@@ -6018,15 +6010,19 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr"/>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>607750</t>
+        </is>
+      </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Егоров</t>
+          <t>Семигласов</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Денис Сергеевич</t>
+          <t>Дмитрий Юрьевич</t>
         </is>
       </c>
     </row>
@@ -6034,19 +6030,15 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>152569</t>
-        </is>
-      </c>
+      <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Снохин</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Алексей Александрович</t>
         </is>
       </c>
     </row>
@@ -6057,12 +6049,12 @@
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Lebedev</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>V.V.</t>
+          <t>Сергей Петрович</t>
         </is>
       </c>
     </row>
@@ -6073,12 +6065,12 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Соловьев</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Тимур Игоревич</t>
+          <t>С.П.</t>
         </is>
       </c>
     </row>
@@ -6086,15 +6078,19 @@
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="inlineStr"/>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1112592</t>
+        </is>
+      </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Шелепов</t>
+          <t>Земляновский</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Валентин Васильевич</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -6104,17 +6100,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>926031</t>
+          <t>811069</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Пономаренко</t>
+          <t>Nikonov</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>О.М.</t>
+          <t>R.</t>
         </is>
       </c>
     </row>
@@ -6124,17 +6120,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>778517</t>
+          <t>1108922</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Данилова</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Михаил Николаевич</t>
+          <t>Елена Михайловна</t>
         </is>
       </c>
     </row>
@@ -6142,19 +6138,15 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>655381</t>
-        </is>
-      </c>
+      <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Сечина</t>
+          <t>Шелепов</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Лариса Сергеевна</t>
+          <t>Валентин Васильевич</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6157,12 @@
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Снохин</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Алексей Александрович</t>
+          <t>Роман Олегович</t>
         </is>
       </c>
     </row>
@@ -6180,17 +6172,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>62552</t>
+          <t>174752</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Lavrinovich</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -6198,15 +6190,19 @@
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" t="inlineStr"/>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>930998</t>
+        </is>
+      </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Бухарин</t>
+          <t>Штопаков</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Михаил Андреевич</t>
+          <t>Игорь Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -6214,19 +6210,15 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>59235</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Любушин</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Алексей Александрович</t>
+          <t>А.С.</t>
         </is>
       </c>
     </row>
@@ -6234,19 +6226,15 @@
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>168284</t>
-        </is>
-      </c>
+      <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Самойлова</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Анна Васильевна</t>
+          <t>М.П.</t>
         </is>
       </c>
     </row>
@@ -6254,15 +6242,19 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="inlineStr"/>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>971910</t>
+        </is>
+      </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Бродт</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>С.П.</t>
+          <t>Л.В.</t>
         </is>
       </c>
     </row>
@@ -6273,12 +6265,12 @@
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Антонов</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>С.В.</t>
+          <t>З.Т.</t>
         </is>
       </c>
     </row>
@@ -6286,15 +6278,19 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1090050</t>
+        </is>
+      </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -6302,19 +6298,15 @@
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>60758</t>
-        </is>
-      </c>
+      <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Muratov</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Ирина Яковлевна</t>
+          <t>A.R.</t>
         </is>
       </c>
     </row>
@@ -6324,17 +6316,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>1112592</t>
+          <t>752159</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Земляновский</t>
+          <t>Дзюбло</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Вадим Александрович</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -6344,17 +6336,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>940368</t>
+          <t>656521</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Токарев</t>
+          <t>Лесин</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Михаил Юрьевич</t>
+          <t>Виктор Иванович</t>
         </is>
       </c>
     </row>
@@ -6362,19 +6354,15 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>841215</t>
-        </is>
-      </c>
+      <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Телегина</t>
+          <t>Bogdanov</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Елена Александровна</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -6382,15 +6370,19 @@
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>696074</t>
+        </is>
+      </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Butakov</t>
+          <t>Халова</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>D.K.</t>
+          <t>Гюльнар Османовна</t>
         </is>
       </c>
     </row>
@@ -6400,17 +6392,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>318881</t>
+          <t>60758</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Еримин</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Ирина Яковлевна</t>
         </is>
       </c>
     </row>
@@ -6418,19 +6410,15 @@
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>1127117</t>
-        </is>
-      </c>
+      <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Гарифуллина</t>
+          <t>Магомедгаджиева</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Ч.А.</t>
+          <t>М.А.</t>
         </is>
       </c>
     </row>
@@ -6440,17 +6428,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Федоров</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Роман Юрьевич</t>
+          <t>Сергей Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -6460,17 +6448,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>743652</t>
+          <t>655056</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Ч.С.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -6478,15 +6466,19 @@
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>484931</t>
+        </is>
+      </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Дедученко</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Ф.М.</t>
+          <t>В.Л.</t>
         </is>
       </c>
     </row>
@@ -6494,19 +6486,15 @@
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>60304</t>
-        </is>
-      </c>
+      <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Rodkin</t>
+          <t>Василенко</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>M.V.</t>
+          <t>П.А.</t>
         </is>
       </c>
     </row>
@@ -6514,15 +6502,19 @@
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" t="inlineStr"/>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>960159</t>
+        </is>
+      </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Рен</t>
+          <t>Хорьков</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Шаоран</t>
+          <t>Сергей Алексеевич</t>
         </is>
       </c>
     </row>
@@ -6532,17 +6524,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t>761852</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Ерофеева</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>В.Л.</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -6552,17 +6544,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>529321</t>
+          <t>1090961</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Э.Р.</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -6572,17 +6564,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>69386</t>
+          <t>534341</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Милетенко</t>
+          <t>Сотникова</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Николай Васильевич</t>
+          <t>А.Г.</t>
         </is>
       </c>
     </row>
@@ -6592,17 +6584,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>842888</t>
+          <t>783485</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Шулейкин</t>
+          <t>Патина</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>В.Н.</t>
+          <t>И.С.</t>
         </is>
       </c>
     </row>
@@ -6610,19 +6602,15 @@
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>811069</t>
-        </is>
-      </c>
+      <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Nikonov</t>
+          <t>Толмачева</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>Е.В.</t>
         </is>
       </c>
     </row>
@@ -6632,17 +6620,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>820348</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Kishankov</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Михаил Константинович</t>
         </is>
       </c>
     </row>
@@ -6650,15 +6638,19 @@
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>697348</t>
+        </is>
+      </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Базаревская</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -6668,17 +6660,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>909288</t>
+          <t>720479</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Марутян</t>
+          <t>Каушанский</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>О.О.</t>
+          <t>Давид Аронович</t>
         </is>
       </c>
     </row>
@@ -6688,17 +6680,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>1134643</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Самохвалов</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Игорь Васильевич</t>
+          <t>Н.И.</t>
         </is>
       </c>
     </row>
@@ -6706,15 +6698,19 @@
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>132561</t>
+        </is>
+      </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>В.Б.</t>
+          <t>Алексей</t>
         </is>
       </c>
     </row>
@@ -6724,17 +6720,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>1051084</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Курьяков</t>
+          <t>Зинатуллина</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>В.Н.</t>
+          <t>Лилия Ильдаровна</t>
         </is>
       </c>
     </row>
@@ -6744,17 +6740,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>598915</t>
+          <t>502793</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Крючков</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Виктор Алексеевич</t>
+          <t>Д.С.</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6761,12 @@
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Skibitskaya</t>
+          <t>Rodygina</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>N.</t>
         </is>
       </c>
     </row>
@@ -6780,17 +6776,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>778517</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Kishankov</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>М.Н.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -6798,19 +6794,15 @@
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>752159</t>
-        </is>
-      </c>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Дзюбло</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>Алексей Геннадьевич</t>
         </is>
       </c>
     </row>
@@ -6818,15 +6810,19 @@
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>324542</t>
+        </is>
+      </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Чигарёв</t>
+          <t>Закиров</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Б.Н.</t>
+          <t>Э.С.</t>
         </is>
       </c>
     </row>
@@ -6836,17 +6832,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Владимир Евгеньевич</t>
+          <t>Алексей Михайлович</t>
         </is>
       </c>
     </row>
@@ -6854,15 +6850,19 @@
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" t="inlineStr"/>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>147756</t>
+        </is>
+      </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Левдик</t>
+          <t>Zakharova</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Всеволод Николаевич</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -6872,17 +6872,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>1195322</t>
+          <t>1134023</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Дмитрий Сергеевич</t>
+          <t>Д.Л.</t>
         </is>
       </c>
     </row>
@@ -6892,17 +6892,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>563529</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Kazanin</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>G.</t>
         </is>
       </c>
     </row>
@@ -6910,19 +6910,15 @@
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>456276</t>
-        </is>
-      </c>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Ольга Валерьевна</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -6930,19 +6926,15 @@
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>930998</t>
-        </is>
-      </c>
+      <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Штопаков</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Игорь Евгеньевич</t>
+          <t>Анатолий Владимирович</t>
         </is>
       </c>
     </row>
@@ -6952,17 +6944,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>778517</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Кишанков</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>М.Н.</t>
         </is>
       </c>
     </row>
@@ -6972,17 +6964,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>926259</t>
+          <t>338184</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Бороздин</t>
+          <t>Kargina</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>С.О.</t>
+          <t>T.</t>
         </is>
       </c>
     </row>
@@ -6990,19 +6982,15 @@
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>996419</t>
-        </is>
-      </c>
+      <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Рыбальченко</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>В.В.</t>
+          <t>М.В.</t>
         </is>
       </c>
     </row>
@@ -7010,15 +6998,19 @@
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" t="inlineStr"/>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>655056</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>З.Т.</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -7026,15 +7018,19 @@
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" t="inlineStr"/>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1160650</t>
+        </is>
+      </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Елисавета Александровна</t>
+          <t>Я.С.</t>
         </is>
       </c>
     </row>
@@ -7042,15 +7038,19 @@
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" t="inlineStr"/>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>926259</t>
+        </is>
+      </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Бороздин</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Михаил Викторович</t>
+          <t>С.О.</t>
         </is>
       </c>
     </row>
@@ -7060,17 +7060,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>588398</t>
+          <t>251756</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Навроцкий</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>О.К.</t>
+          <t>Андрей Владимирович</t>
         </is>
       </c>
     </row>
@@ -7078,19 +7078,15 @@
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>1160650</t>
-        </is>
-      </c>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Громыко</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Я.С.</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -7098,15 +7094,19 @@
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>318881</t>
+        </is>
+      </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Василенко</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>П.А.</t>
+          <t>Николай Александрович</t>
         </is>
       </c>
     </row>
@@ -7114,15 +7114,19 @@
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>602242</t>
+        </is>
+      </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Агзамов</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>О.С.</t>
         </is>
       </c>
     </row>
@@ -7130,19 +7134,15 @@
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>345331</t>
-        </is>
-      </c>
+      <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Зарипова</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>К.В.</t>
+          <t>Л.Ф.</t>
         </is>
       </c>
     </row>
@@ -7152,17 +7152,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>147756</t>
+          <t>608438</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Zakharova</t>
+          <t>Кузин</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -7170,19 +7170,15 @@
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>251756</t>
-        </is>
-      </c>
+      <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Мичугин</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Андрей Владимирович</t>
+          <t>Максим Сергеевич</t>
         </is>
       </c>
     </row>
@@ -7192,17 +7188,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>743652</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Chigarev</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Чингиз Саибович</t>
+          <t>B.N.</t>
         </is>
       </c>
     </row>
@@ -7212,17 +7208,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>975561</t>
+          <t>811069</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Роман Александрович</t>
         </is>
       </c>
     </row>
@@ -7232,17 +7228,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>69927</t>
+          <t>1073107</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Сергей Гельевич</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -7252,17 +7248,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>1075365</t>
+          <t>1076517</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Юмашева</t>
+          <t>Emel'yanov</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Анастасия Константиновна</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -7270,35 +7266,19 @@
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1149161</t>
+        </is>
+      </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Гумерова</t>
+          <t>Афлятунов</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
           <t>Р.Р.</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>1016841</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Залятдинов</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>А.А.</t>
         </is>
       </c>
     </row>

--- a/authors.xlsx
+++ b/authors.xlsx
@@ -454,19 +454,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>60229</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Орешкин</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Полина Николаевна</t>
         </is>
       </c>
     </row>
@@ -476,17 +472,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t>1154710</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Валиуллин</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Елисавета Александровна</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -494,15 +490,19 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1051084</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Зинатуллина</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>Лилия Ильдаровна</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,19 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>807087</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Полудеткина</t>
+          <t>Gladkikh</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Елена Николаевна</t>
+          <t>Evgeniy</t>
         </is>
       </c>
     </row>
@@ -528,17 +532,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1112796</t>
+          <t>324542</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Бурлуцкий</t>
+          <t>Zakirov</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -546,15 +550,19 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>140195</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Соколова</t>
+          <t>Bilichenko</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>I.</t>
         </is>
       </c>
     </row>
@@ -564,17 +572,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1134023</t>
+          <t>761852</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Ерофеева</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Дмитрий Леонидович</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -584,17 +592,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>548848</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Юлия Геннадьевна</t>
+          <t>Олег Сергеевич</t>
         </is>
       </c>
     </row>
@@ -602,19 +610,15 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>923755</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Л.М.</t>
+          <t>Алексей Геннадьевич</t>
         </is>
       </c>
     </row>
@@ -622,15 +626,19 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1079671</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Дунаева</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>В.И.</t>
+          <t>В.Е.</t>
         </is>
       </c>
     </row>
@@ -640,17 +648,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59800</t>
+          <t>1076517</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Emel'yanov</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Юрий Абрамович</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -658,19 +666,15 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>595034</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chernyshov</t>
+          <t>Гавриленко</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>Сергей Иванович</t>
         </is>
       </c>
     </row>
@@ -678,19 +682,15 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>842607</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Лындин</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Виктор Николаевич</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -698,15 +698,19 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1112592</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Земляновский</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Елисавета Александровна</t>
+          <t>Вадим Александрович</t>
         </is>
       </c>
     </row>
@@ -717,12 +721,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Skibitskaya</t>
+          <t>Serov</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>P.</t>
         </is>
       </c>
     </row>
@@ -730,15 +734,19 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1079671</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Алиева</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Л.А.</t>
+          <t>Владимир Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -749,12 +757,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Антонов</t>
+          <t>Громыко</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>С.В.</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -762,19 +770,15 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1079671</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>В.Е.</t>
+          <t>А.С.</t>
         </is>
       </c>
     </row>
@@ -784,17 +788,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>924651</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Гельфгат</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Михаил Яковлевич</t>
+          <t>Николай Александрович</t>
         </is>
       </c>
     </row>
@@ -804,17 +808,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>893978</t>
+          <t>696074</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ершов</t>
+          <t>Халова</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Алексей Валентинович</t>
+          <t>Гюльнар Османовна</t>
         </is>
       </c>
     </row>
@@ -824,17 +828,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Наталья Евгеньевна</t>
+          <t>Инна Андреевна</t>
         </is>
       </c>
     </row>
@@ -844,17 +848,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>1073107</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>Елисавета Александровна</t>
         </is>
       </c>
     </row>
@@ -862,15 +866,19 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1177993</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Аникеева</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Л.М.</t>
+          <t>Э.С.</t>
         </is>
       </c>
     </row>
@@ -880,17 +888,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>710603</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Климов</t>
+          <t>Гладких</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Д.С.</t>
+          <t>Евгений Александрович</t>
         </is>
       </c>
     </row>
@@ -898,15 +906,19 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>979172</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Садреева</t>
+          <t>Афанасьева</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Р.Х.</t>
+          <t>Мария Александровна</t>
         </is>
       </c>
     </row>
@@ -914,19 +926,15 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>324542</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Zakirov</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>З.Т.</t>
         </is>
       </c>
     </row>
@@ -937,12 +945,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>Анатолий Владимирович</t>
         </is>
       </c>
     </row>
@@ -953,12 +961,12 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Воробьева</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Г.Н.</t>
         </is>
       </c>
     </row>
@@ -966,15 +974,19 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>656521</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Закирова</t>
+          <t>Лесин</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Милена Римовна</t>
+          <t>Виктор Иванович</t>
         </is>
       </c>
     </row>
@@ -982,15 +994,19 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>565541</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Хафизов</t>
+          <t>Шиловский</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>С.Ф.</t>
+          <t>Андрей Павлович</t>
         </is>
       </c>
     </row>
@@ -998,15 +1014,19 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>276872</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Чудин</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Егор Александрович</t>
+          <t>Василий Игоревич</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1036,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>1089985</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Выломов</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Инна Андреевна</t>
+          <t>Денис Дмитриевич</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1056,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>819133</t>
+          <t>926628</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Сребродольская</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Наталья Вячеславовна</t>
+          <t>Мария Андреевна</t>
         </is>
       </c>
     </row>
@@ -1054,19 +1074,15 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>276872</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Паэглит</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Василий Игоревич</t>
+          <t>С.И.</t>
         </is>
       </c>
     </row>
@@ -1074,19 +1090,15 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>166698</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Жилина</t>
+          <t>Левдик</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Всеволод Николаевич</t>
         </is>
       </c>
     </row>
@@ -1094,19 +1106,15 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1075365</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Юмашева</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Анастасия Константиновна</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1124,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>960159</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Хорьков</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>А.</t>
+          <t>Сергей Алексеевич</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1144,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>830087</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Гурова</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Б.</t>
+          <t>Диана Ирхамовна</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1164,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>64859</t>
+          <t>778517</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>М.П.</t>
+          <t>Михаил Николаевич</t>
         </is>
       </c>
     </row>
@@ -1174,15 +1182,19 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>104322</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Селенгинский</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Дмитрий Андреевич</t>
+          <t>Б.Н.</t>
         </is>
       </c>
     </row>
@@ -1190,15 +1202,19 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1198013</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Муминов</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Геннадий Алексеевич</t>
+          <t>Сардорбек Абдулахат Угли</t>
         </is>
       </c>
     </row>
@@ -1206,15 +1222,19 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>251756</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Andreassen</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>Андрей Владимирович</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1244,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>332465</t>
+          <t>842888</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Исаева</t>
+          <t>Шулейкин</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Гюльнара Юсуповна</t>
+          <t>В.Н.</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1265,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Епишов</t>
+          <t>Богданов</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>А.П.</t>
+          <t>Б.П.</t>
         </is>
       </c>
     </row>
@@ -1258,15 +1278,19 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>569074</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Богомолов</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Павел Владимирович</t>
+          <t>С.Н.</t>
         </is>
       </c>
     </row>
@@ -1274,19 +1298,15 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>529321</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Vadakkepuliyambatta</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Эльвира Ромуальдовна</t>
+          <t>S.</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1316,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Б.Н.</t>
+          <t>В.И.</t>
         </is>
       </c>
     </row>
@@ -1314,19 +1334,15 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>785395</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Печкина</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Юлия Александровна</t>
+          <t>Андрей Сергеевич</t>
         </is>
       </c>
     </row>
@@ -1334,15 +1350,19 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>852301</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Путина</t>
+          <t>Остапчук</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>И.Б.</t>
+          <t>С.С.</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1372,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>138669</t>
+          <t>143647</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Лейла Азретовна</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -1370,19 +1390,15 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1089985</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Выломов</t>
+          <t>Киль</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Денис Дмитриевич</t>
+          <t>Анна Олеговна</t>
         </is>
       </c>
     </row>
@@ -1390,19 +1406,15 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>152569</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Щукин</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Г.Г.</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1422,15 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>529222</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Якубсон</t>
+          <t>Andreassen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>К.И.</t>
+          <t>K.</t>
         </is>
       </c>
     </row>
@@ -1432,17 +1440,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>654135</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rodkin</t>
+          <t>Риле</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>M.V.</t>
+          <t>Елена Борисовна</t>
         </is>
       </c>
     </row>
@@ -1450,15 +1458,19 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>799191</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lebedev</t>
+          <t>Пятибратов</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>V.V.</t>
+          <t>Петр Вадимович</t>
         </is>
       </c>
     </row>
@@ -1468,17 +1480,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>987645</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Ющенко</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Василий Игоревич</t>
+          <t>Т.С.</t>
         </is>
       </c>
     </row>
@@ -1488,17 +1500,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>60229</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Орешкин</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Ольга Валерьевна</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -1508,17 +1520,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>799191</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Пятибратов</t>
+          <t>Bogoyavlensky</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Петр Вадимович</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -1526,15 +1538,19 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>113090</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Космачева</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>М.С.</t>
+          <t>Наталья Евгеньевна</t>
         </is>
       </c>
     </row>
@@ -1544,17 +1560,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>655381</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Сечина</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Лариса Сергеевна</t>
         </is>
       </c>
     </row>
@@ -1562,15 +1578,19 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>548848</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Горева</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>Юлия Геннадьевна</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1600,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>926628</t>
+          <t>1192730</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Сребродольская</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Мария Андреевна</t>
+          <t>А.Э.</t>
         </is>
       </c>
     </row>
@@ -1600,17 +1620,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>1156414</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Макаренко</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>В.И.</t>
+          <t>Елизавета Валерьевна</t>
         </is>
       </c>
     </row>
@@ -1618,19 +1638,15 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>104322</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Давыденко</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Борис</t>
+          <t>Б.И.</t>
         </is>
       </c>
     </row>
@@ -1638,19 +1654,15 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>804891</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Дайзель</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>Александр Владимирович</t>
         </is>
       </c>
     </row>
@@ -1658,15 +1670,19 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1199525</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Лукова</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>А.Г.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1692,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>908621</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Пуго</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Т.А.</t>
+          <t>О.С.</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1712,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>569074</t>
+          <t>785395</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Печкина</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>С.Н.</t>
+          <t>Юлия Александровна</t>
         </is>
       </c>
     </row>
@@ -1714,15 +1730,19 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1045116</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Соловьев</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Тимур Игоревич</t>
+          <t>Николай Владиславович</t>
         </is>
       </c>
     </row>
@@ -1730,19 +1750,15 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>881447</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Юсупова</t>
+          <t>Суслов</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Искра Фаиковна</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -1750,15 +1766,19 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>332465</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Исаева</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>А.С.</t>
+          <t>Гюльнара Юсуповна</t>
         </is>
       </c>
     </row>
@@ -1766,15 +1786,19 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>770074</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Куандыков</t>
+          <t>Krasnoshtanova</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Балтабек Муханович</t>
+          <t>N.</t>
         </is>
       </c>
     </row>
@@ -1782,15 +1806,19 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>979019</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Лобжанидзе</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>Н.Е.</t>
         </is>
       </c>
     </row>
@@ -1798,19 +1826,15 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>975548</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Глотов</t>
+          <t>Skibitskaya</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Антон Васильевич</t>
+          <t>N.A.</t>
         </is>
       </c>
     </row>
@@ -1818,15 +1842,19 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>811069</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Куклина</t>
+          <t>Nikonov</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Вера Владимировна</t>
+          <t>R.</t>
         </is>
       </c>
     </row>
@@ -1834,19 +1862,15 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>819133</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Каргина</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Татьяна Николаевна</t>
         </is>
       </c>
     </row>
@@ -1854,15 +1878,19 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>523822</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Гогоненков</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>Георгий Николаевич</t>
         </is>
       </c>
     </row>
@@ -1870,19 +1898,15 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>59255</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Гарагаш</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -1890,15 +1914,19 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>743652</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Остапенко</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Денис Андреевич</t>
+          <t>Ч.С.</t>
         </is>
       </c>
     </row>
@@ -1906,15 +1934,19 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>608396</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Аникеев</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>Д.П.</t>
         </is>
       </c>
     </row>
@@ -1922,15 +1954,19 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1073107</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>В.Л.</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -1938,15 +1974,19 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>139213</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Serov</t>
+          <t>Кудрявцев</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>P.</t>
+          <t>Александр Алексеевич</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1996,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1176378</t>
+          <t>174981</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Драбкина</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Анастасия Дмитриевна</t>
+          <t>Р.О.</t>
         </is>
       </c>
     </row>
@@ -1976,17 +2016,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>987645</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ющенко</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Т.С.</t>
+          <t>С.Е.</t>
         </is>
       </c>
     </row>
@@ -1996,17 +2036,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>70016</t>
+          <t>528186</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Михайлов</t>
+          <t>Boldyrev</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Николай Нилович</t>
+          <t>K.</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2057,12 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Маврикиди</t>
+          <t>Pikina</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Федор Иванович</t>
+          <t>E.S.</t>
         </is>
       </c>
     </row>
@@ -2032,17 +2072,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>588398</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Навроцкий</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>О.К.</t>
+          <t>Б.</t>
         </is>
       </c>
     </row>
@@ -2050,15 +2090,19 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>710603</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hubbard</t>
+          <t>Климов</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Д.С.</t>
         </is>
       </c>
     </row>
@@ -2068,17 +2112,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>331900</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Индрупский</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>И.М.</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -2086,19 +2130,15 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>221582</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Сергей Николаевич</t>
+          <t>Сергей Петрович</t>
         </is>
       </c>
     </row>
@@ -2106,15 +2146,19 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>119121</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Елагин</t>
+          <t>Демченко</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>П.О.</t>
+          <t>Н.П.</t>
         </is>
       </c>
     </row>
@@ -2124,17 +2168,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>V.N.</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -2142,15 +2186,19 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>59255</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Хаматов</t>
+          <t>Гарагаш</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>А.Р.</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -2158,19 +2206,15 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>218196</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Олег Владимирович</t>
+          <t>Елисавета Александровна</t>
         </is>
       </c>
     </row>
@@ -2178,15 +2222,19 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>382667</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Петухова</t>
+          <t>Меркулов</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Марина Викторовна</t>
+          <t>О.И.</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2244,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>54011</t>
+          <t>971965</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Киенская</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>К.И.</t>
+          <t>Ю.В.</t>
         </is>
       </c>
     </row>
@@ -2214,15 +2262,19 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>132561</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Егоров</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Денис Сергеевич</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -2230,19 +2282,15 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>59816</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Епишов</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Анатолий Николаевич</t>
+          <t>А.П.</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2301,12 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Савченко</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Владимир Борисович</t>
+          <t>Е.Ю.</t>
         </is>
       </c>
     </row>
@@ -2268,17 +2316,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>А.</t>
         </is>
       </c>
     </row>
@@ -2288,12 +2336,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1199525</t>
+          <t>534346</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Лукова</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2306,15 +2354,19 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>819133</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Савченко</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Е.Ю.</t>
+          <t>Наталья Вячеславовна</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2376,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Кишанков</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Алексей Владимирович</t>
+          <t>М.В.</t>
         </is>
       </c>
     </row>
@@ -2342,15 +2394,19 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>174752</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Кашапов</t>
+          <t>Lavrinovich</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>И.Х.</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -2360,17 +2416,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>674140</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Kishankov</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>И.О.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -2378,15 +2434,19 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>926031</t>
+        </is>
+      </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Гумерова</t>
+          <t>Пономаренко</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Р.Р.</t>
+          <t>О.М.</t>
         </is>
       </c>
     </row>
@@ -2397,12 +2457,12 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Левдик</t>
+          <t>Bünz</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Всеволод Николаевич</t>
+          <t>S.</t>
         </is>
       </c>
     </row>
@@ -2412,17 +2472,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>167357</t>
+          <t>1160650</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Safonov</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Я.С.</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2492,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1112592</t>
+          <t>54011</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Земляновский</t>
+          <t>Киенская</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Вадим Александрович</t>
+          <t>К.И.</t>
         </is>
       </c>
     </row>
@@ -2452,17 +2512,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>991650</t>
+          <t>1062006</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Владимир Борисович</t>
+          <t>Ирина Леонидовна</t>
         </is>
       </c>
     </row>
@@ -2470,19 +2530,15 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>60304</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Снохин</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Михаил Владимирович</t>
+          <t>Алексей Александрович</t>
         </is>
       </c>
     </row>
@@ -2490,15 +2546,19 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1149161</t>
+        </is>
+      </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Гулиев</t>
+          <t>Афлятунов</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Ибрагим Саидович</t>
+          <t>Р.Р.</t>
         </is>
       </c>
     </row>
@@ -2508,17 +2568,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>841206</t>
+          <t>113090</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Студеникина</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Людмила Алексеевна</t>
+          <t>Н.Е.</t>
         </is>
       </c>
     </row>
@@ -2528,17 +2588,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1084975</t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Дина Сергеевна</t>
+          <t>И.К.</t>
         </is>
       </c>
     </row>
@@ -2546,15 +2606,19 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>152569</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Курьяков</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>В.Н.</t>
         </is>
       </c>
     </row>
@@ -2562,19 +2626,15 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>382667</t>
-        </is>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Меркулов</t>
+          <t>Чигарёв</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>О.И.</t>
+          <t>Б.Н.</t>
         </is>
       </c>
     </row>
@@ -2584,17 +2644,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>529321</t>
+          <t>909288</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Марутян</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Э.Р.</t>
+          <t>О.О.</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2674,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>С.Н.</t>
+          <t>Сергей Николаевич</t>
         </is>
       </c>
     </row>
@@ -2622,15 +2682,19 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>881447</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kats</t>
+          <t>Юсупова</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>E.I.</t>
+          <t>Искра Фаиковна</t>
         </is>
       </c>
     </row>
@@ -2640,17 +2704,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1154710</t>
+          <t>1045116</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Валиуллин</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -2660,17 +2724,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t>1134023</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Владимир Львович</t>
+          <t>Дмитрий Леонидович</t>
         </is>
       </c>
     </row>
@@ -2680,17 +2744,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>909288</t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Марутян</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>О.О.</t>
+          <t>Игорь Васильевич</t>
         </is>
       </c>
     </row>
@@ -2700,17 +2764,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>565541</t>
+          <t>1181957</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Шиловский</t>
+          <t>Шакиров</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Андрей Павлович</t>
+          <t>Равиль Рамильевич</t>
         </is>
       </c>
     </row>
@@ -2720,17 +2784,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>655056</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Федонкин</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Михаил Александрович</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -2740,17 +2804,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>65352</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Рыбалко</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Александр Евменьевич</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -2758,15 +2822,19 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>607750</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Рен</t>
+          <t>Семигласов</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Шаоран</t>
+          <t>Дмитрий Юрьевич</t>
         </is>
       </c>
     </row>
@@ -2774,15 +2842,19 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>968113</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>Утопленников</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A.N.</t>
+          <t>Владимир Константинович</t>
         </is>
       </c>
     </row>
@@ -2792,17 +2864,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>733450</t>
+          <t>996419</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Крючков</t>
+          <t>Рыбальченко</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Максим Викторович</t>
+          <t>В.В.</t>
         </is>
       </c>
     </row>
@@ -2812,17 +2884,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>64377</t>
+          <t>697348</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Базаревская</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>К.С.</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -2830,19 +2902,15 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>1180298</t>
-        </is>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Сурначёв</t>
+          <t>Шелепов</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Д.В.</t>
+          <t>Валентин Васильевич</t>
         </is>
       </c>
     </row>
@@ -2850,19 +2918,15 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>816046</t>
-        </is>
-      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Степанкина</t>
+          <t>Оганов</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Ольга Александровна</t>
+          <t>Г.С.</t>
         </is>
       </c>
     </row>
@@ -2870,15 +2934,19 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>588413</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Халиуллин</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Т.Ф.</t>
+          <t>Елена Александровна</t>
         </is>
       </c>
     </row>
@@ -2888,17 +2956,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>59235</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Федоров</t>
+          <t>Любушин</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Роман Юрьевич</t>
+          <t>Алексей Александрович</t>
         </is>
       </c>
     </row>
@@ -2906,19 +2974,15 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>1062006</t>
-        </is>
-      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Гордеева</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>И.Л.</t>
+          <t>Ольга Владимировна</t>
         </is>
       </c>
     </row>
@@ -2928,17 +2992,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>69927</t>
+          <t>1134643</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Самохвалов</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Сергей Гельевич</t>
+          <t>Н.И.</t>
         </is>
       </c>
     </row>
@@ -2948,17 +3012,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>168284</t>
+          <t>925717</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Самойлова</t>
+          <t>Архипов</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Анна Васильевна</t>
+          <t>Алексей Игоревич</t>
         </is>
       </c>
     </row>
@@ -2966,19 +3030,15 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>138669</t>
-        </is>
-      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Хаматов</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Л.А.</t>
+          <t>А.Р.</t>
         </is>
       </c>
     </row>
@@ -2988,17 +3048,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>956325</t>
+          <t>529321</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Tsymbarovich</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>P.R.</t>
+          <t>Эльвира Ромуальдовна</t>
         </is>
       </c>
     </row>
@@ -3008,17 +3068,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>923755</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Л.М.</t>
         </is>
       </c>
     </row>
@@ -3028,17 +3088,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>534346</t>
+          <t>820348</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Михаил Константинович</t>
         </is>
       </c>
     </row>
@@ -3048,17 +3108,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t>1108922</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Данилова</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Александр Дмитриевич</t>
+          <t>Елена Михайловна</t>
         </is>
       </c>
     </row>
@@ -3068,17 +3128,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>841215</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Телегина</t>
+          <t>Fedorov</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Елена Александровна</t>
+          <t>R.Yu.</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3148,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1160650</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Яна Степановна</t>
+          <t>С.Н.</t>
         </is>
       </c>
     </row>
@@ -3108,17 +3168,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>925717</t>
+          <t>674140</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Архипов</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Алексей Игоревич</t>
+          <t>Ирина Оскаровна</t>
         </is>
       </c>
     </row>
@@ -3126,15 +3186,19 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1016841</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Соин</t>
+          <t>Залятдинов</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Д.А.</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -3142,15 +3206,19 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>69927</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>И.Я.</t>
+          <t>С.Г.</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3229,12 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pikina</t>
+          <t>Rodygina</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>E.S.</t>
+          <t>N.</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3244,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1045116</t>
+          <t>345331</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>К.В.</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3265,12 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Федаш</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Михаил Викторович</t>
+          <t>Анатолий Владимирович</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3281,12 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Роде</t>
+          <t>Соколова</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Э.Д.</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -3228,17 +3296,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>588413</t>
+          <t>331900</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Индрупский</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Елена Александровна</t>
+          <t>И.М.</t>
         </is>
       </c>
     </row>
@@ -3246,19 +3314,15 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>152569</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Курьяков</t>
+          <t>Толмачева</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>В.Н.</t>
+          <t>Е.В.</t>
         </is>
       </c>
     </row>
@@ -3266,15 +3330,19 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1195322</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Рыбаков</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Р.А.</t>
+          <t>Дмитрий Сергеевич</t>
         </is>
       </c>
     </row>
@@ -3282,15 +3350,19 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>563529</t>
+        </is>
+      </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Федаш</t>
+          <t>Kazanin</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Анатолий Владимирович</t>
+          <t>G.</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3373,12 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Чигарёв</t>
+          <t>Магомедгаджиева</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Б.Н.</t>
+          <t>М.А.</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3388,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>59816</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>О.В.</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -3334,19 +3406,15 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>979019</t>
-        </is>
-      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Лобжанидзе</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Н.Е.</t>
+          <t>Зоя Тимофеевна</t>
         </is>
       </c>
     </row>
@@ -3354,15 +3422,19 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1090050</t>
+        </is>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Щукин</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Г.Г.</t>
+          <t>Александр Дмитриевич</t>
         </is>
       </c>
     </row>
@@ -3370,19 +3442,15 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>588413</t>
-        </is>
-      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Космачева</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>М.С.</t>
         </is>
       </c>
     </row>
@@ -3390,19 +3458,15 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>820348</t>
-        </is>
-      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>М.К.</t>
+          <t>С.П.</t>
         </is>
       </c>
     </row>
@@ -3412,17 +3476,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>655381</t>
+          <t>70016</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Сечина</t>
+          <t>Михайлов</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Лариса Сергеевна</t>
+          <t>Николай Нилович</t>
         </is>
       </c>
     </row>
@@ -3432,17 +3496,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>1135782</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Бакиров</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>А.</t>
+          <t>Нияз Радилович</t>
         </is>
       </c>
     </row>
@@ -3450,15 +3514,19 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>396398</t>
+        </is>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Дайзель</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Александр Владимирович</t>
+          <t>Александр Иванович</t>
         </is>
       </c>
     </row>
@@ -3466,19 +3534,15 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>1016841</t>
-        </is>
-      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Залятдинов</t>
+          <t>Бухарин</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Михаил Андреевич</t>
         </is>
       </c>
     </row>
@@ -3486,19 +3550,15 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>110737</t>
-        </is>
-      </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Fedorov</t>
+          <t>Kuzmin</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>R.Yu.</t>
+          <t>V.A.</t>
         </is>
       </c>
     </row>
@@ -3508,17 +3568,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>460222</t>
+          <t>588413</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Федорова</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Елена Борисовна</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -3528,17 +3588,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1180298</t>
+          <t>924651</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Сурначев</t>
+          <t>Гельфгат</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Дмитрий Владимирович</t>
+          <t>Михаил Яковлевич</t>
         </is>
       </c>
     </row>
@@ -3546,15 +3606,19 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>598915</t>
+        </is>
+      </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Пахомов</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Андрей Львович</t>
+          <t>Виктор Алексеевич</t>
         </is>
       </c>
     </row>
@@ -3562,19 +3626,15 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>1067241</t>
-        </is>
-      </c>
+      <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Юсифов</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>К.В.</t>
+          <t>Рауф Юсифович</t>
         </is>
       </c>
     </row>
@@ -3584,17 +3644,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>120886</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Rasputina</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Василий Игоревич</t>
         </is>
       </c>
     </row>
@@ -3602,19 +3662,15 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>940368</t>
-        </is>
-      </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Токарев</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Михаил Юрьевич</t>
+          <t>М.П.</t>
         </is>
       </c>
     </row>
@@ -3624,17 +3680,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>58179</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Novikov</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>С.Е.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3701,12 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Паэглит</t>
+          <t>Рен</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>С.И.</t>
+          <t>Шаоран</t>
         </is>
       </c>
     </row>
@@ -3660,17 +3716,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>62552</t>
+          <t>975548</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Глотов</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Антон Васильевич</t>
         </is>
       </c>
     </row>
@@ -3678,19 +3734,15 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>830087</t>
-        </is>
-      </c>
+      <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Гурова</t>
+          <t>Lebedev</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Диана Ирхамовна</t>
+          <t>V.V.</t>
         </is>
       </c>
     </row>
@@ -3698,19 +3750,15 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>534346</t>
-        </is>
-      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -3718,19 +3766,15 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>569074</t>
-        </is>
-      </c>
+      <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Гулиев</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Сергей Николаевич</t>
+          <t>Ибрагим Саидович</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3785,12 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Могучева</t>
+          <t>Халиуллин</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Екатерина Александровна</t>
+          <t>Т.Ф.</t>
         </is>
       </c>
     </row>
@@ -3754,15 +3798,19 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>445526</t>
+        </is>
+      </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Butakov</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>D.K.</t>
+          <t>Андрей</t>
         </is>
       </c>
     </row>
@@ -3772,17 +3820,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>829491</t>
+          <t>1003999</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Доманова</t>
+          <t>Алали</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Е.Г.</t>
+          <t>Валид</t>
         </is>
       </c>
     </row>
@@ -3790,19 +3838,15 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>674140</t>
-        </is>
-      </c>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Patton</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Ирина Оскаровна</t>
+          <t>H.</t>
         </is>
       </c>
     </row>
@@ -3810,15 +3854,19 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>602242</t>
+        </is>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Агзамов</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>O.</t>
         </is>
       </c>
     </row>
@@ -3826,15 +3874,19 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>104322</t>
+        </is>
+      </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Воробьева</t>
+          <t>Chigarev</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Г.Н.</t>
+          <t>B.N.</t>
         </is>
       </c>
     </row>
@@ -3842,19 +3894,15 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>523822</t>
-        </is>
-      </c>
+      <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Гогоненков</t>
+          <t>Хафизов</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Георгий Николаевич</t>
+          <t>С.Ф.</t>
         </is>
       </c>
     </row>
@@ -3864,17 +3912,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1135782</t>
+          <t>752159</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Бакиров</t>
+          <t>Дзюбло</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Нияз Радилович</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -3882,19 +3930,15 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>1057679</t>
-        </is>
-      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Кишанков</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>Дина Сергеевна</t>
         </is>
       </c>
     </row>
@@ -3904,17 +3948,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>612772</t>
+          <t>1067241</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Дроздов</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>К.В.</t>
         </is>
       </c>
     </row>
@@ -3924,17 +3968,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>69927</t>
+          <t>612772</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Дроздов</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>С.Г.</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -3944,17 +3988,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>975561</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Kazanin</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>O.S.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -3962,15 +4006,19 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Mattingsdal</t>
+          <t>Федонкин</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>Михаил Александрович</t>
         </is>
       </c>
     </row>
@@ -3980,17 +4028,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>139213</t>
+          <t>143647</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Кудрявцев</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Александр Алексеевич</t>
+          <t>Наталья Александровна</t>
         </is>
       </c>
     </row>
@@ -3998,15 +4046,19 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>62552</t>
+        </is>
+      </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Грунис</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Е.Б.</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -4014,15 +4066,19 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>321532</t>
+        </is>
+      </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Bünz</t>
+          <t>Жеребятьева</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>S.</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4088,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>711489</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Сарданашвили</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Ольга Николаевна</t>
+          <t>Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4108,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>6070</t>
+          <t>1113614</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Махутов</t>
+          <t>Коновалова</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Ирина Николаевна</t>
         </is>
       </c>
     </row>
@@ -4073,12 +4129,12 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Суслов</t>
+          <t>Дедученко</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Ф.М.</t>
         </is>
       </c>
     </row>
@@ -4088,17 +4144,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1192730</t>
+          <t>167357</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Safonov</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>А.Э.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -4108,17 +4164,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>62552</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Олег Сергеевич</t>
+          <t>Александр Михайлович</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4185,12 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Vadakkepuliyambatta</t>
+          <t>Кашапов</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>S.</t>
+          <t>И.Х.</t>
         </is>
       </c>
     </row>
@@ -4144,17 +4200,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1127117</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Гарифуллина</t>
+          <t>Кишанков</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Ч.А.</t>
+          <t>Алексей Владимирович</t>
         </is>
       </c>
     </row>
@@ -4162,19 +4218,15 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>842888</t>
-        </is>
-      </c>
+      <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Шулейкин</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>В.Н.</t>
+          <t>Геннадий Алексеевич</t>
         </is>
       </c>
     </row>
@@ -4182,15 +4234,19 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1112592</t>
+        </is>
+      </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Богданов</t>
+          <t>Земляновский</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Б.П.</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -4200,17 +4256,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>890229</t>
+          <t>60758</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Варушкин</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>С.В.</t>
+          <t>Ирина Яковлевна</t>
         </is>
       </c>
     </row>
@@ -4218,19 +4274,15 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>59816</t>
-        </is>
-      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Kats</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>E.I.</t>
         </is>
       </c>
     </row>
@@ -4240,17 +4292,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>324542</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Закиров</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>O.</t>
+          <t>Э.С.</t>
         </is>
       </c>
     </row>
@@ -4260,17 +4312,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>1090961</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Popov</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -4278,15 +4330,19 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>218196</t>
+        </is>
+      </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Максимов</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>А.Л.</t>
+          <t>Олег Владимирович</t>
         </is>
       </c>
     </row>
@@ -4294,19 +4350,15 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>996419</t>
-        </is>
-      </c>
+      <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Рыбальченко</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>В.В.</t>
+          <t>А.С.</t>
         </is>
       </c>
     </row>
@@ -4316,17 +4368,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>770074</t>
+          <t>1084975</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Krasnoshtanova</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>N.</t>
+          <t>Дина Сергеевна</t>
         </is>
       </c>
     </row>
@@ -4336,17 +4388,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>174981</t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Р.О.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -4356,17 +4408,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1156414</t>
+          <t>926259</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Макаренко</t>
+          <t>Бороздин</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Елизавета Валерьевна</t>
+          <t>С.О.</t>
         </is>
       </c>
     </row>
@@ -4374,15 +4426,19 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>167593</t>
+        </is>
+      </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Никулин</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>Б.А.</t>
         </is>
       </c>
     </row>
@@ -4390,19 +4446,15 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>743652</t>
-        </is>
-      </c>
+      <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Чудин</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Чингиз Саибович</t>
+          <t>Егор Александрович</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4465,7 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Bogdanov</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4429,12 +4481,12 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -4444,17 +4496,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>140195</t>
+          <t>1112796</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Bilichenko</t>
+          <t>Бурлуцкий</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>I.</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -4464,17 +4516,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>979172</t>
+          <t>64377</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Афанасьева</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Мария Александровна</t>
+          <t>К.С.</t>
         </is>
       </c>
     </row>
@@ -4484,17 +4536,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>830581</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Попова</t>
+          <t>Chernyshov</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Марина Николаевна</t>
+          <t>Sergey</t>
         </is>
       </c>
     </row>
@@ -4504,17 +4556,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>103971</t>
+          <t>69386</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Милетенко</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>Николай Васильевич</t>
         </is>
       </c>
     </row>
@@ -4524,17 +4576,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>971965</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Popov</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Ю.В.</t>
+          <t>Sergey</t>
         </is>
       </c>
     </row>
@@ -4544,17 +4596,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>345331</t>
+          <t>1075365</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Юмашева</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>К.В.</t>
+          <t>Анастасия Константиновна</t>
         </is>
       </c>
     </row>
@@ -4562,15 +4614,19 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>110737</t>
+        </is>
+      </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Каргина</t>
+          <t>Федоров</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Татьяна Николаевна</t>
+          <t>Роман Юрьевич</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4637,12 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Киль</t>
+          <t>Елагин</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Анна Олеговна</t>
+          <t>П.О.</t>
         </is>
       </c>
     </row>
@@ -4596,17 +4652,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>708974</t>
+          <t>733450</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Юрова</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Маргарита Павловна</t>
+          <t>Максим Викторович</t>
         </is>
       </c>
     </row>
@@ -4616,17 +4672,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>466464</t>
+          <t>138669</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Хисамов</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Р.С.</t>
+          <t>Лейла Азретовна</t>
         </is>
       </c>
     </row>
@@ -4636,17 +4692,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>710603</t>
+          <t>59800</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Klimov</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>D.</t>
+          <t>Ю.А.</t>
         </is>
       </c>
     </row>
@@ -4654,19 +4710,15 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>968113</t>
-        </is>
-      </c>
+      <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Утопленников</t>
+          <t>Куклина</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Владимир Константинович</t>
+          <t>Вера Владимировна</t>
         </is>
       </c>
     </row>
@@ -4676,17 +4728,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>1180298</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Сурначев</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>М.В.</t>
+          <t>Дмитрий Владимирович</t>
         </is>
       </c>
     </row>
@@ -4694,19 +4746,15 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>143647</t>
-        </is>
-      </c>
+      <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Шульгин</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Наталья Александровна</t>
+          <t>Павел Алексеевич</t>
         </is>
       </c>
     </row>
@@ -4714,15 +4762,19 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>811069</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Patton</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>H.</t>
+          <t>Роман Александрович</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4785,12 @@
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Владимир Львович</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -4748,17 +4800,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>318881</t>
+          <t>460222</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Федорова</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Елена Борисовна</t>
         </is>
       </c>
     </row>
@@ -4768,17 +4820,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>42271</t>
+          <t>783485</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Скрипкин</t>
+          <t>Патина</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Антон Геннадьевич</t>
+          <t>И.С.</t>
         </is>
       </c>
     </row>
@@ -4786,19 +4838,15 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>1198013</t>
-        </is>
-      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Муминов</t>
+          <t>Соловьев</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Сардорбек Абдулахат Угли</t>
+          <t>Тимур Игоревич</t>
         </is>
       </c>
     </row>
@@ -4806,19 +4854,15 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>59235</t>
-        </is>
-      </c>
+      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Любушин</t>
+          <t>Гумерова</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Алексей Александрович</t>
+          <t>Р.Р.</t>
         </is>
       </c>
     </row>
@@ -4828,17 +4872,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>167593</t>
+          <t>1090050</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Никулин</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Б.А.</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4893,12 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Горева</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Юлия Геннадьевна</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -4862,15 +4906,19 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>930998</t>
+        </is>
+      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Штопаков</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Зоя Тимофеевна</t>
+          <t>Игорь Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -4878,15 +4926,19 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1062006</t>
+        </is>
+      </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Юсифов</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Рауф Юсифович</t>
+          <t>И.Л.</t>
         </is>
       </c>
     </row>
@@ -4896,17 +4948,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>119121</t>
+          <t>529321</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Демченко</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Н.П.</t>
+          <t>Э.Р.</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4969,12 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Мо</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Цзяли</t>
+          <t>А.Г.</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4984,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1195322</t>
+          <t>720479</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Каушанский</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Дмитрий Сергеевич</t>
+          <t>Давид Аронович</t>
         </is>
       </c>
     </row>
@@ -4950,19 +5002,15 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>1113614</t>
-        </is>
-      </c>
+      <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Коновалова</t>
+          <t>Могучева</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Ирина Николаевна</t>
+          <t>Екатерина Александровна</t>
         </is>
       </c>
     </row>
@@ -4972,17 +5020,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>396398</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Александр Иванович</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -4992,17 +5040,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Н.Е.</t>
+          <t>V.N.</t>
         </is>
       </c>
     </row>
@@ -5010,15 +5058,19 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>69927</t>
+        </is>
+      </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Шульгин</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Павел Алексеевич</t>
+          <t>Сергей Гельевич</t>
         </is>
       </c>
     </row>
@@ -5028,17 +5080,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>841215</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Телегина</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Владимир Евгеньевич</t>
+          <t>Елена Александровна</t>
         </is>
       </c>
     </row>
@@ -5048,17 +5100,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1062006</t>
+          <t>819133</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Ирина Леонидовна</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -5066,19 +5118,15 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>524537</t>
-        </is>
-      </c>
+      <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Zimina</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>O.Yu.</t>
+          <t>М.В.</t>
         </is>
       </c>
     </row>
@@ -5088,17 +5136,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1003999</t>
+          <t>743652</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Алали</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Валид</t>
+          <t>Чингиз Саибович</t>
         </is>
       </c>
     </row>
@@ -5106,15 +5154,19 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>602242</t>
+        </is>
+      </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Kuzmin</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>V.A.</t>
+          <t>O.S.</t>
         </is>
       </c>
     </row>
@@ -5122,15 +5174,19 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>893978</t>
+        </is>
+      </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Оганов</t>
+          <t>Ершов</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Г.С.</t>
+          <t>Алексей Валентинович</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5197,12 @@
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Закирова</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Полина Николаевна</t>
+          <t>Милена Римовна</t>
         </is>
       </c>
     </row>
@@ -5156,17 +5212,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>646094</t>
+          <t>12271</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Мелехин</t>
+          <t>Куликов</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>В.Д.</t>
         </is>
       </c>
     </row>
@@ -5174,19 +5230,15 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>743652</t>
-        </is>
-      </c>
+      <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Ч.С.</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -5196,17 +5248,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>654135</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Риле</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Елена Борисовна</t>
+          <t>Борис</t>
         </is>
       </c>
     </row>
@@ -5216,17 +5268,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>940368</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Токарев</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>I.</t>
+          <t>Михаил Юрьевич</t>
         </is>
       </c>
     </row>
@@ -5236,17 +5288,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>58179</t>
+          <t>546858</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Novikov</t>
+          <t>Брусиловский</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>А.И.</t>
         </is>
       </c>
     </row>
@@ -5254,19 +5306,15 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>598915</t>
-        </is>
-      </c>
+      <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Крючков</t>
+          <t>Рыбаков</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Виктор Алексеевич</t>
+          <t>Р.А.</t>
         </is>
       </c>
     </row>
@@ -5276,17 +5324,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>59800</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Ю.А.</t>
+          <t>Михаил Владимирович</t>
         </is>
       </c>
     </row>
@@ -5294,15 +5342,19 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>655056</t>
+        </is>
+      </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Гордеева</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Ольга Владимировна</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -5310,19 +5362,15 @@
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>1090961</t>
-        </is>
-      </c>
+      <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Muratov</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>A.R.</t>
         </is>
       </c>
     </row>
@@ -5330,19 +5378,15 @@
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>849344</t>
-        </is>
-      </c>
+      <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Роде</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Ирина Каплановна</t>
+          <t>Э.Д.</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5396,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Ирина Каплановна</t>
         </is>
       </c>
     </row>
@@ -5372,17 +5416,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>975561</t>
+          <t>1090961</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -5390,15 +5434,19 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>147756</t>
+        </is>
+      </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Zakharova</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Д.Л.</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -5408,17 +5456,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>1176378</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Драбкина</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>И.К.</t>
+          <t>Анастасия Дмитриевна</t>
         </is>
       </c>
     </row>
@@ -5428,17 +5476,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1181957</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Шакиров</t>
+          <t>Rodkin</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Равиль Рамильевич</t>
+          <t>M.V.</t>
         </is>
       </c>
     </row>
@@ -5449,12 +5497,12 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Беляев</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>С.Г.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -5465,12 +5513,12 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Куандыков</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>В.Б.</t>
+          <t>Балтабек Муханович</t>
         </is>
       </c>
     </row>
@@ -5480,17 +5528,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>143647</t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Bogoyavlensky</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>I.</t>
         </is>
       </c>
     </row>
@@ -5501,12 +5549,12 @@
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Антонов</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Андрей Сергеевич</t>
+          <t>С.В.</t>
         </is>
       </c>
     </row>
@@ -5516,17 +5564,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>62552</t>
+          <t>166698</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Жилина</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Александр Михайлович</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -5536,17 +5584,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>778517</t>
+          <t>42271</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Скрипкин</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Михаил Николаевич</t>
+          <t>Антон Геннадьевич</t>
         </is>
       </c>
     </row>
@@ -5556,17 +5604,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>1006242</t>
+          <t>103971</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Ибрагимов</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>И.И.</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -5576,17 +5624,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>926031</t>
+          <t>708974</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Пономаренко</t>
+          <t>Юрова</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>О.М.</t>
+          <t>Маргарита Павловна</t>
         </is>
       </c>
     </row>
@@ -5594,15 +5642,19 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1127117</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Гавриленко</t>
+          <t>Гарифуллина</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Сергей Иванович</t>
+          <t>Ч.А.</t>
         </is>
       </c>
     </row>
@@ -5612,17 +5664,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>608396</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Аникеев</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Д.П.</t>
+          <t>Сергей Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -5632,17 +5684,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>807087</t>
+          <t>1180298</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Gladkikh</t>
+          <t>Сурначёв</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Evgeniy</t>
+          <t>Д.В.</t>
         </is>
       </c>
     </row>
@@ -5652,17 +5704,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>598399</t>
+          <t>778517</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Молоков</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Петр Борисович</t>
+          <t>М.Н.</t>
         </is>
       </c>
     </row>
@@ -5672,17 +5724,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>991650</t>
+          <t>59800</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>В.Б.</t>
+          <t>Юрий Абрамович</t>
         </is>
       </c>
     </row>
@@ -5690,19 +5742,15 @@
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>69386</t>
-        </is>
-      </c>
+      <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Милетенко</t>
+          <t>Дунаева</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Николай Васильевич</t>
+          <t>В.И.</t>
         </is>
       </c>
     </row>
@@ -5710,19 +5758,15 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>445526</t>
-        </is>
-      </c>
+      <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Mattingsdal</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>R.</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5776,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>321532</t>
+          <t>466464</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Жеребятьева</t>
+          <t>Хисамов</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Р.С.</t>
         </is>
       </c>
     </row>
@@ -5752,17 +5796,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>1045116</t>
+          <t>971910</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Бродт</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Николай Владиславович</t>
+          <t>Л.В.</t>
         </is>
       </c>
     </row>
@@ -5770,19 +5814,15 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>819136</t>
-        </is>
-      </c>
+      <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Игорь Васильевич</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -5792,17 +5832,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>594065</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Хитров</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Алексей Михайлович</t>
+          <t>О.В.</t>
         </is>
       </c>
     </row>
@@ -5810,19 +5850,15 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>852301</t>
-        </is>
-      </c>
+      <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Остапчук</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>С.С.</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5868,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1177993</t>
+          <t>1006242</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Аникеева</t>
+          <t>Ибрагимов</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Э.С.</t>
+          <t>И.И.</t>
         </is>
       </c>
     </row>
@@ -5850,19 +5886,15 @@
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>546858</t>
-        </is>
-      </c>
+      <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Брусиловский</t>
+          <t>Егоров</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>А.И.</t>
+          <t>Денис Сергеевич</t>
         </is>
       </c>
     </row>
@@ -5872,17 +5904,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>528186</t>
+          <t>608438</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Boldyrev</t>
+          <t>Кузин</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -5890,15 +5922,19 @@
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>59816</t>
+        </is>
+      </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Бухарин</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Михаил Андреевич</t>
+          <t>Анатолий Николаевич</t>
         </is>
       </c>
     </row>
@@ -5906,15 +5942,19 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>64859</t>
+        </is>
+      </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Дина Сергеевна</t>
+          <t>М.П.</t>
         </is>
       </c>
     </row>
@@ -5922,19 +5962,15 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>12271</t>
-        </is>
-      </c>
+      <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Куликов</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>В.Д.</t>
+          <t>Владимир Львович</t>
         </is>
       </c>
     </row>
@@ -5945,12 +5981,12 @@
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Селенгинский</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Дмитрий Андреевич</t>
         </is>
       </c>
     </row>
@@ -5961,12 +5997,12 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Дедученко</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Ф.М.</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -5977,12 +6013,12 @@
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Давыденко</t>
+          <t>Полудеткина</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Б.И.</t>
+          <t>Елена Николаевна</t>
         </is>
       </c>
     </row>
@@ -5990,19 +6026,15 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>807087</t>
-        </is>
-      </c>
+      <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Гладких</t>
+          <t>Беляев</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Евгений Александрович</t>
+          <t>С.Г.</t>
         </is>
       </c>
     </row>
@@ -6010,19 +6042,15 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>607750</t>
-        </is>
-      </c>
+      <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Семигласов</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Дмитрий Юрьевич</t>
+          <t>Роман Олегович</t>
         </is>
       </c>
     </row>
@@ -6033,12 +6061,12 @@
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Снохин</t>
+          <t>Петухова</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Алексей Александрович</t>
+          <t>Марина Викторовна</t>
         </is>
       </c>
     </row>
@@ -6046,15 +6074,19 @@
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="inlineStr"/>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>674140</t>
+        </is>
+      </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Сергей Петрович</t>
+          <t>И.О.</t>
         </is>
       </c>
     </row>
@@ -6062,15 +6094,19 @@
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="inlineStr"/>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1134023</t>
+        </is>
+      </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>С.П.</t>
+          <t>Д.Л.</t>
         </is>
       </c>
     </row>
@@ -6080,17 +6116,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>1112592</t>
+          <t>484931</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Земляновский</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>Владимир Львович</t>
         </is>
       </c>
     </row>
@@ -6098,19 +6134,15 @@
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>811069</t>
-        </is>
-      </c>
+      <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Nikonov</t>
+          <t>Kuklina</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -6120,17 +6152,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>1108922</t>
+          <t>890229</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Данилова</t>
+          <t>Варушкин</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Елена Михайловна</t>
+          <t>С.В.</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6173,12 @@
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Шелепов</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Валентин Васильевич</t>
+          <t>Л.М.</t>
         </is>
       </c>
     </row>
@@ -6157,12 +6189,12 @@
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Роман Олегович</t>
+          <t>И.Я.</t>
         </is>
       </c>
     </row>
@@ -6172,17 +6204,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>174752</t>
+          <t>841206</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Lavrinovich</t>
+          <t>Студеникина</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Людмила Алексеевна</t>
         </is>
       </c>
     </row>
@@ -6192,17 +6224,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>930998</t>
+          <t>710603</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Штопаков</t>
+          <t>Klimov</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Игорь Евгеньевич</t>
+          <t>D.</t>
         </is>
       </c>
     </row>
@@ -6210,15 +6242,19 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>588398</t>
+        </is>
+      </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Навроцкий</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>А.С.</t>
+          <t>О.К.</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6265,12 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Василенко</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>М.П.</t>
+          <t>П.А.</t>
         </is>
       </c>
     </row>
@@ -6242,19 +6278,15 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>971910</t>
-        </is>
-      </c>
+      <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Бродт</t>
+          <t>Мичугин</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Л.В.</t>
+          <t>Максим Сергеевич</t>
         </is>
       </c>
     </row>
@@ -6265,12 +6297,12 @@
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>З.Т.</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -6278,19 +6310,15 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>1090050</t>
-        </is>
-      </c>
+      <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Путина</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>И.Б.</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6329,12 @@
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Muratov</t>
+          <t>Пахомов</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>A.R.</t>
+          <t>Андрей Львович</t>
         </is>
       </c>
     </row>
@@ -6314,19 +6342,15 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>752159</t>
-        </is>
-      </c>
+      <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Дзюбло</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>В.Б.</t>
         </is>
       </c>
     </row>
@@ -6336,17 +6360,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>656521</t>
+          <t>804891</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Лесин</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Виктор Иванович</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -6354,15 +6378,19 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr"/>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>138669</t>
+        </is>
+      </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Bogdanov</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Л.А.</t>
         </is>
       </c>
     </row>
@@ -6372,17 +6400,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>696074</t>
+          <t>502793</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Халова</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Гюльнар Османовна</t>
+          <t>Д.С.</t>
         </is>
       </c>
     </row>
@@ -6392,17 +6420,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>60758</t>
+          <t>842607</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Лындин</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Ирина Яковлевна</t>
+          <t>Виктор Николаевич</t>
         </is>
       </c>
     </row>
@@ -6413,12 +6441,12 @@
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Магомедгаджиева</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>М.А.</t>
+          <t>В.Л.</t>
         </is>
       </c>
     </row>
@@ -6428,17 +6456,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>338184</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Kargina</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Сергей Евгеньевич</t>
+          <t>T.</t>
         </is>
       </c>
     </row>
@@ -6446,19 +6474,15 @@
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>655056</t>
-        </is>
-      </c>
+      <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Butakov</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>D.K.</t>
         </is>
       </c>
     </row>
@@ -6468,17 +6492,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t>534341</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Сотникова</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>В.Л.</t>
+          <t>А.Г.</t>
         </is>
       </c>
     </row>
@@ -6489,12 +6513,12 @@
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Василенко</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>П.А.</t>
+          <t>Д.Л.</t>
         </is>
       </c>
     </row>
@@ -6504,17 +6528,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>960159</t>
+          <t>484931</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Хорьков</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Сергей Алексеевич</t>
+          <t>В.Л.</t>
         </is>
       </c>
     </row>
@@ -6524,17 +6548,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>761852</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Ерофеева</t>
+          <t>Кишанков</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -6544,17 +6568,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>1090961</t>
+          <t>1160650</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>Яна Степановна</t>
         </is>
       </c>
     </row>
@@ -6562,19 +6586,15 @@
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>534341</t>
-        </is>
-      </c>
+      <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Сотникова</t>
+          <t>Богомолов</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>А.Г.</t>
+          <t>Павел Владимирович</t>
         </is>
       </c>
     </row>
@@ -6582,19 +6602,15 @@
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>783485</t>
-        </is>
-      </c>
+      <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Патина</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>И.С.</t>
+          <t>Владимир Борисович</t>
         </is>
       </c>
     </row>
@@ -6602,15 +6618,19 @@
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr"/>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>598399</t>
+        </is>
+      </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Толмачева</t>
+          <t>Молоков</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Е.В.</t>
+          <t>Петр Борисович</t>
         </is>
       </c>
     </row>
@@ -6620,17 +6640,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>820348</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Михаил Константинович</t>
+          <t>А.</t>
         </is>
       </c>
     </row>
@@ -6640,17 +6660,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>697348</t>
+          <t>991650</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Базаревская</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>В.Б.</t>
         </is>
       </c>
     </row>
@@ -6660,17 +6680,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>720479</t>
+          <t>816046</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Каушанский</t>
+          <t>Степанкина</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Давид Аронович</t>
+          <t>Ольга Александровна</t>
         </is>
       </c>
     </row>
@@ -6678,19 +6698,15 @@
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>1134643</t>
-        </is>
-      </c>
+      <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Самохвалов</t>
+          <t>Агзамов</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Н.И.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -6700,17 +6716,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>830581</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Попова</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Марина Николаевна</t>
         </is>
       </c>
     </row>
@@ -6720,17 +6736,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>1051084</t>
+          <t>594065</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Зинатуллина</t>
+          <t>Хитров</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Лилия Ильдаровна</t>
+          <t>Алексей Михайлович</t>
         </is>
       </c>
     </row>
@@ -6740,17 +6756,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>502793</t>
+          <t>908621</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Пуго</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Д.С.</t>
+          <t>Т.А.</t>
         </is>
       </c>
     </row>
@@ -6758,15 +6774,19 @@
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>646094</t>
+        </is>
+      </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Rodygina</t>
+          <t>Мелехин</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>N.</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -6776,17 +6796,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>534346</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Kishankov</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -6794,15 +6814,19 @@
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>132561</t>
+        </is>
+      </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Алексей Геннадьевич</t>
+          <t>Алексей Михайлович</t>
         </is>
       </c>
     </row>
@@ -6812,17 +6836,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>324542</t>
+          <t>711489</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Закиров</t>
+          <t>Сарданашвили</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Э.С.</t>
+          <t>Ольга Николаевна</t>
         </is>
       </c>
     </row>
@@ -6830,19 +6854,15 @@
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>132561</t>
-        </is>
-      </c>
+      <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Грунис</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Алексей Михайлович</t>
+          <t>Е.Б.</t>
         </is>
       </c>
     </row>
@@ -6852,17 +6872,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>147756</t>
+          <t>168284</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Zakharova</t>
+          <t>Самойлова</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Анна Васильевна</t>
         </is>
       </c>
     </row>
@@ -6870,19 +6890,15 @@
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>1134023</t>
-        </is>
-      </c>
+      <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Мо</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Д.Л.</t>
+          <t>Цзяли</t>
         </is>
       </c>
     </row>
@@ -6890,19 +6906,15 @@
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>563529</t>
-        </is>
-      </c>
+      <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Маврикиди</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>G.</t>
+          <t>Федор Иванович</t>
         </is>
       </c>
     </row>
@@ -6910,15 +6922,19 @@
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>820348</t>
+        </is>
+      </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>М.К.</t>
         </is>
       </c>
     </row>
@@ -6926,15 +6942,19 @@
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>829491</t>
+        </is>
+      </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Доманова</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Анатолий Владимирович</t>
+          <t>Е.Г.</t>
         </is>
       </c>
     </row>
@@ -6942,19 +6962,15 @@
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>778517</t>
-        </is>
-      </c>
+      <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Соин</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>М.Н.</t>
+          <t>Д.А.</t>
         </is>
       </c>
     </row>
@@ -6962,19 +6978,15 @@
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>338184</t>
-        </is>
-      </c>
+      <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Kargina</t>
+          <t>Максимов</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>T.</t>
+          <t>А.Л.</t>
         </is>
       </c>
     </row>
@@ -6982,15 +6994,19 @@
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" t="inlineStr"/>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>991650</t>
+        </is>
+      </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>М.В.</t>
+          <t>Владимир Борисович</t>
         </is>
       </c>
     </row>
@@ -6998,19 +7014,15 @@
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>655056</t>
-        </is>
-      </c>
+      <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Садреева</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>Р.Х.</t>
         </is>
       </c>
     </row>
@@ -7020,17 +7032,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>1160650</t>
+          <t>529222</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Якубсон</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Я.С.</t>
+          <t>К.И.</t>
         </is>
       </c>
     </row>
@@ -7040,17 +7052,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>926259</t>
+          <t>524537</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Бороздин</t>
+          <t>Zimina</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>С.О.</t>
+          <t>O.Yu.</t>
         </is>
       </c>
     </row>
@@ -7060,17 +7072,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>251756</t>
+          <t>120886</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Rasputina</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Андрей Владимирович</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7093,12 @@
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Громыко</t>
+          <t>Petrov</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>A.N.</t>
         </is>
       </c>
     </row>
@@ -7094,19 +7106,15 @@
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>318881</t>
-        </is>
-      </c>
+      <c r="B358" t="inlineStr"/>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Николай Александрович</t>
+          <t>Михаил Викторович</t>
         </is>
       </c>
     </row>
@@ -7116,17 +7124,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>956325</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Tsymbarovich</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>О.С.</t>
+          <t>P.R.</t>
         </is>
       </c>
     </row>
@@ -7152,17 +7160,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>608438</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Кузин</t>
+          <t>Махутов</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -7173,12 +7181,12 @@
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Мичугин</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Максим Сергеевич</t>
+          <t>Юлия Геннадьевна</t>
         </is>
       </c>
     </row>
@@ -7188,17 +7196,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>569074</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Chigarev</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>B.N.</t>
+          <t>Сергей Николаевич</t>
         </is>
       </c>
     </row>
@@ -7208,17 +7216,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>811069</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Роман Александрович</t>
+          <t>Алексей</t>
         </is>
       </c>
     </row>
@@ -7228,17 +7236,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t>65352</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Рыбалко</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>Александр Евменьевич</t>
         </is>
       </c>
     </row>
@@ -7246,19 +7254,15 @@
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>1076517</t>
-        </is>
-      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Emel'yanov</t>
+          <t>Остапенко</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Денис Андреевич</t>
         </is>
       </c>
     </row>
@@ -7266,19 +7270,15 @@
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>1149161</t>
-        </is>
-      </c>
+      <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Афлятунов</t>
+          <t>Алиева</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Р.Р.</t>
+          <t>Л.А.</t>
         </is>
       </c>
     </row>

--- a/authors.xlsx
+++ b/authors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,15 +454,19 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>139213</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Кудрявцев</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Полина Николаевна</t>
+          <t>Александр Алексеевич</t>
         </is>
       </c>
     </row>
@@ -472,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1154710</t>
+          <t>608396</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Валиуллин</t>
+          <t>Аникеев</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Д.П.</t>
         </is>
       </c>
     </row>
@@ -492,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1051084</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Зинатуллина</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Лилия Ильдаровна</t>
+          <t>Инна Андреевна</t>
         </is>
       </c>
     </row>
@@ -512,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>807087</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gladkikh</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Evgeniy</t>
+          <t>Борис</t>
         </is>
       </c>
     </row>
@@ -530,19 +534,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>324542</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Zakirov</t>
+          <t>Агзамов</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -552,17 +552,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>140195</t>
+          <t>893978</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bilichenko</t>
+          <t>Ершов</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I.</t>
+          <t>Алексей Валентинович</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>761852</t>
+          <t>321532</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ерофеева</t>
+          <t>Жеребятьева</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -592,17 +592,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>546858</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Брусиловский</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Олег Сергеевич</t>
+          <t>А.И.</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Соловьев</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Алексей Геннадьевич</t>
+          <t>Тимур Игоревич</t>
         </is>
       </c>
     </row>
@@ -628,17 +628,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>В.Е.</t>
+          <t>O.S.</t>
         </is>
       </c>
     </row>
@@ -646,19 +646,15 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1076517</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Emel'yanov</t>
+          <t>Максимов</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>А.Л.</t>
         </is>
       </c>
     </row>
@@ -669,12 +665,12 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Гавриленко</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Сергей Иванович</t>
+          <t>З.Т.</t>
         </is>
       </c>
     </row>
@@ -682,15 +678,19 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>276872</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Bogoyavlensky</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -700,17 +700,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1112592</t>
+          <t>1192730</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Земляновский</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Вадим Александрович</t>
+          <t>А.Э.</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Serov</t>
+          <t>Хафизов</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P.</t>
+          <t>С.Ф.</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1079671</t>
+          <t>674140</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Столяров</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Владимир Евгеньевич</t>
+          <t>И.О.</t>
         </is>
       </c>
     </row>
@@ -754,15 +754,19 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>60229</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Громыко</t>
+          <t>Орешкин</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -770,15 +774,19 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>104322</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>А.С.</t>
+          <t>Б.</t>
         </is>
       </c>
     </row>
@@ -786,19 +794,15 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>318881</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Николай Александрович</t>
+          <t>Дина Сергеевна</t>
         </is>
       </c>
     </row>
@@ -808,17 +812,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>696074</t>
+          <t>991650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Халова</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Гюльнар Османовна</t>
+          <t>В.Б.</t>
         </is>
       </c>
     </row>
@@ -828,17 +832,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>975548</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Глотов</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Инна Андреевна</t>
+          <t>Антон Васильевич</t>
         </is>
       </c>
     </row>
@@ -848,17 +852,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Елисавета Александровна</t>
+          <t>Василий Игоревич</t>
         </is>
       </c>
     </row>
@@ -868,17 +872,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1177993</t>
+          <t>396398</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Аникеева</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Э.С.</t>
+          <t>Александр Иванович</t>
         </is>
       </c>
     </row>
@@ -886,19 +890,15 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>807087</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Гладких</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Евгений Александрович</t>
+          <t>В.Л.</t>
         </is>
       </c>
     </row>
@@ -908,17 +908,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>979172</t>
+          <t>524537</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Афанасьева</t>
+          <t>Zimina</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Мария Александровна</t>
+          <t>O.Yu.</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Гулиев</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>З.Т.</t>
+          <t>Ибрагим Саидович</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Замрий</t>
+          <t>Закирова</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Анатолий Владимирович</t>
+          <t>Милена Римовна</t>
         </is>
       </c>
     </row>
@@ -958,15 +958,19 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1090961</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Воробьева</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Г.Н.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -976,17 +980,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>656521</t>
+          <t>1112592</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Лесин</t>
+          <t>Земляновский</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Виктор Иванович</t>
+          <t>Вадим Александрович</t>
         </is>
       </c>
     </row>
@@ -996,17 +1000,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>565541</t>
+          <t>140195</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Шиловский</t>
+          <t>Bilichenko</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Андрей Павлович</t>
+          <t>I.</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1020,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>819133</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Василий Игоревич</t>
+          <t>Наталья Вячеславовна</t>
         </is>
       </c>
     </row>
@@ -1034,19 +1038,15 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1089985</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Выломов</t>
+          <t>Хаматов</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Денис Дмитриевич</t>
+          <t>А.Р.</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>926628</t>
+          <t>324542</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Сребродольская</t>
+          <t>Закиров</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Мария Андреевна</t>
+          <t>Э.С.</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Паэглит</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>С.И.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -1090,15 +1090,19 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>65352</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Левдик</t>
+          <t>Рыбалко</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Всеволод Николаевич</t>
+          <t>Александр Евменьевич</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1113,12 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Гавриленко</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Сергей Иванович</t>
         </is>
       </c>
     </row>
@@ -1124,17 +1128,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>960159</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Хорьков</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Сергей Алексеевич</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -1164,17 +1168,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>778517</t>
+          <t>1062006</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Михаил Николаевич</t>
+          <t>И.Л.</t>
         </is>
       </c>
     </row>
@@ -1184,17 +1188,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>960159</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Хорьков</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Б.Н.</t>
+          <t>Сергей Алексеевич</t>
         </is>
       </c>
     </row>
@@ -1204,17 +1208,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1198013</t>
+          <t>1134023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Муминов</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Сардорбек Абдулахат Угли</t>
+          <t>Дмитрий Леонидович</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1228,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>251756</t>
+          <t>820348</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Андрей Владимирович</t>
+          <t>М.К.</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1248,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>842888</t>
+          <t>69927</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Шулейкин</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>В.Н.</t>
+          <t>С.Г.</t>
         </is>
       </c>
     </row>
@@ -1265,12 +1269,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Богданов</t>
+          <t>Kuklina</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Б.П.</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -1280,17 +1284,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>569074</t>
+          <t>54011</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Киенская</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>С.Н.</t>
+          <t>К.И.</t>
         </is>
       </c>
     </row>
@@ -1298,15 +1302,19 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>971965</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vadakkepuliyambatta</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>S.</t>
+          <t>Ю.В.</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1324,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>924651</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Гельфгат</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>В.И.</t>
+          <t>Михаил Яковлевич</t>
         </is>
       </c>
     </row>
@@ -1334,15 +1342,19 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>166698</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Скворцов</t>
+          <t>Жилина</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Андрей Сергеевич</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1364,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>852301</t>
+          <t>59235</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Остапчук</t>
+          <t>Любушин</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>С.С.</t>
+          <t>Алексей Александрович</t>
         </is>
       </c>
     </row>
@@ -1372,17 +1384,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>143647</t>
+          <t>1073107</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -1390,15 +1402,19 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>59800</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Киль</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Анна Олеговна</t>
+          <t>Юрий Абрамович</t>
         </is>
       </c>
     </row>
@@ -1406,15 +1422,19 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>276872</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Щукин</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Г.Г.</t>
+          <t>В.И.</t>
         </is>
       </c>
     </row>
@@ -1422,15 +1442,19 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>842888</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Andreassen</t>
+          <t>Шулейкин</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>В.Н.</t>
         </is>
       </c>
     </row>
@@ -1440,17 +1464,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>654135</t>
+          <t>276872</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Риле</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Елена Борисовна</t>
+          <t>Василий Игоревич</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1484,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>799191</t>
+          <t>167593</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Пятибратов</t>
+          <t>Никулин</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Петр Вадимович</t>
+          <t>Б.А.</t>
         </is>
       </c>
     </row>
@@ -1480,17 +1504,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>987645</t>
+          <t>655381</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ющенко</t>
+          <t>Сечина</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Т.С.</t>
+          <t>Лариса Сергеевна</t>
         </is>
       </c>
     </row>
@@ -1498,19 +1522,15 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>60229</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Орешкин</t>
+          <t>Lebedev</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>V.V.</t>
         </is>
       </c>
     </row>
@@ -1518,19 +1538,15 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>276872</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Andreassen</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>K.</t>
         </is>
       </c>
     </row>
@@ -1540,17 +1556,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>113090</t>
+          <t>1043633</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Маракова</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Наталья Евгеньевна</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -1558,19 +1574,15 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>655381</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Сечина</t>
+          <t>Антонов</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Лариса Сергеевна</t>
+          <t>С.В.</t>
         </is>
       </c>
     </row>
@@ -1578,19 +1590,15 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>548848</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Каргина</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Юлия Геннадьевна</t>
+          <t>Татьяна Николаевна</t>
         </is>
       </c>
     </row>
@@ -1600,17 +1608,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1192730</t>
+          <t>655056</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>А.Э.</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -1618,19 +1626,15 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1156414</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Макаренко</t>
+          <t>Полудеткина</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Елизавета Валерьевна</t>
+          <t>Елена Николаевна</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1645,12 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Давыденко</t>
+          <t>Алиева</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Б.И.</t>
+          <t>Л.А.</t>
         </is>
       </c>
     </row>
@@ -1654,15 +1658,19 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>841215</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Дайзель</t>
+          <t>Телегина</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Александр Владимирович</t>
+          <t>Елена Александровна</t>
         </is>
       </c>
     </row>
@@ -1672,17 +1680,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1199525</t>
+          <t>598915</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Лукова</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Виктор Алексеевич</t>
         </is>
       </c>
     </row>
@@ -1692,17 +1700,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>608438</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Сизов</t>
+          <t>Кузин</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>О.С.</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1720,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>785395</t>
+          <t>528186</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Печкина</t>
+          <t>Boldyrev</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Юлия Александровна</t>
+          <t>K.</t>
         </is>
       </c>
     </row>
@@ -1732,17 +1740,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1045116</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Николай Владиславович</t>
+          <t>Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -1750,15 +1758,19 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>598399</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Суслов</t>
+          <t>Молоков</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Петр Борисович</t>
         </is>
       </c>
     </row>
@@ -1768,17 +1780,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>332465</t>
+          <t>1079671</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Исаева</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Гюльнара Юсуповна</t>
+          <t>Владимир Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -1788,17 +1800,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>770074</t>
+          <t>69386</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Krasnoshtanova</t>
+          <t>Милетенко</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N.</t>
+          <t>Николай Васильевич</t>
         </is>
       </c>
     </row>
@@ -1808,17 +1820,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>979019</t>
+          <t>890229</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Лобжанидзе</t>
+          <t>Варушкин</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Н.Е.</t>
+          <t>С.В.</t>
         </is>
       </c>
     </row>
@@ -1826,15 +1838,19 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1090050</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Skibitskaya</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>N.A.</t>
+          <t>Александр Дмитриевич</t>
         </is>
       </c>
     </row>
@@ -1844,17 +1860,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>811069</t>
+          <t>987645</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nikonov</t>
+          <t>Ющенко</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>Т.С.</t>
         </is>
       </c>
     </row>
@@ -1862,15 +1878,19 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>956325</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Каргина</t>
+          <t>Tsymbarovich</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Татьяна Николаевна</t>
+          <t>P.R.</t>
         </is>
       </c>
     </row>
@@ -1878,19 +1898,15 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>523822</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Гогоненков</t>
+          <t>Чудин</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Георгий Николаевич</t>
+          <t>Егор Александрович</t>
         </is>
       </c>
     </row>
@@ -1898,15 +1914,19 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>484931</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>Владимир Львович</t>
         </is>
       </c>
     </row>
@@ -1914,19 +1934,15 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>743652</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Vadakkepuliyambatta</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ч.С.</t>
+          <t>S.</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1952,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>608396</t>
+          <t>930998</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Аникеев</t>
+          <t>Штопаков</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Д.П.</t>
+          <t>Игорь Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1972,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1073107</t>
+          <t>971910</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Бродт</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>Л.В.</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1992,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>139213</t>
+          <t>1149161</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Кудрявцев</t>
+          <t>Афлятунов</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Александр Алексеевич</t>
+          <t>Р.Р.</t>
         </is>
       </c>
     </row>
@@ -1996,17 +2012,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>174981</t>
+          <t>64377</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Р.О.</t>
+          <t>К.С.</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2032,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>595034</t>
+          <t>569074</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>С.Е.</t>
+          <t>Сергей Николаевич</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2052,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>528186</t>
+          <t>1134023</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Boldyrev</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>K.</t>
+          <t>Д.Л.</t>
         </is>
       </c>
     </row>
@@ -2057,12 +2073,12 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pikina</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>E.S.</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -2072,17 +2088,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>908621</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Пуго</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Б.</t>
+          <t>Т.А.</t>
         </is>
       </c>
     </row>
@@ -2092,17 +2108,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>710603</t>
+          <t>830581</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Климов</t>
+          <t>Попова</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Д.С.</t>
+          <t>Марина Николаевна</t>
         </is>
       </c>
     </row>
@@ -2112,17 +2128,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>60758</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>Ирина Яковлевна</t>
         </is>
       </c>
     </row>
@@ -2130,15 +2146,19 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1084975</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Филиппова</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Сергей Петрович</t>
+          <t>Дина Сергеевна</t>
         </is>
       </c>
     </row>
@@ -2146,19 +2166,15 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>119121</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Демченко</t>
+          <t>Грунис</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Н.П.</t>
+          <t>Е.Б.</t>
         </is>
       </c>
     </row>
@@ -2168,17 +2184,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1043633</t>
+          <t>456276</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Маракова</t>
+          <t>Тюкавкина</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>О.В.</t>
         </is>
       </c>
     </row>
@@ -2188,17 +2204,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>59255</t>
+          <t>1134643</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Гарагаш</t>
+          <t>Самохвалов</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>Н.И.</t>
         </is>
       </c>
     </row>
@@ -2206,15 +2222,19 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>778517</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Сафарова</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Елисавета Александровна</t>
+          <t>Михаил Николаевич</t>
         </is>
       </c>
     </row>
@@ -2222,19 +2242,15 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>382667</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Меркулов</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>О.И.</t>
+          <t>А.С.</t>
         </is>
       </c>
     </row>
@@ -2242,19 +2258,15 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>971965</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Садреева</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ю.В.</t>
+          <t>Р.Х.</t>
         </is>
       </c>
     </row>
@@ -2264,17 +2276,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>64859</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>М.П.</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2297,12 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Епишов</t>
+          <t>Muratov</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>А.П.</t>
+          <t>A.R.</t>
         </is>
       </c>
     </row>
@@ -2298,15 +2310,19 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>925717</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Савченко</t>
+          <t>Архипов</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Е.Ю.</t>
+          <t>Алексей Игоревич</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2332,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>534346</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>А.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -2334,19 +2350,15 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>534346</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>В.Б.</t>
         </is>
       </c>
     </row>
@@ -2354,19 +2366,15 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>819133</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Наталья Вячеславовна</t>
+          <t>Юлия Геннадьевна</t>
         </is>
       </c>
     </row>
@@ -2374,19 +2382,15 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>60304</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>М.В.</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2400,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>174752</t>
+          <t>612772</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lavrinovich</t>
+          <t>Дроздов</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2425,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Kishankov</t>
+          <t>Кишанков</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Алексей Владимирович</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2440,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>926031</t>
+          <t>646094</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Пономаренко</t>
+          <t>Мелехин</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>О.М.</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -2454,15 +2458,19 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>975561</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bünz</t>
+          <t>Kazanin</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>S.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -2470,19 +2478,15 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>1160650</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Я.С.</t>
+          <t>Роман Олегович</t>
         </is>
       </c>
     </row>
@@ -2490,19 +2494,15 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>54011</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Киенская</t>
+          <t>Пахомов</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>К.И.</t>
+          <t>Андрей Львович</t>
         </is>
       </c>
     </row>
@@ -2510,19 +2510,15 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1062006</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ирина Леонидовна</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -2530,15 +2526,19 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>318881</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Снохин</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Алексей Александрович</t>
+          <t>Николай Александрович</t>
         </is>
       </c>
     </row>
@@ -2546,14 +2546,10 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>1149161</t>
-        </is>
-      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Афлятунов</t>
+          <t>Гумерова</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2566,19 +2562,15 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>113090</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Лазуткина</t>
+          <t>Ростовщиков</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Н.Е.</t>
+          <t>Владимир Борисович</t>
         </is>
       </c>
     </row>
@@ -2588,17 +2580,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Курьяков</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>И.К.</t>
+          <t>В.Н.</t>
         </is>
       </c>
     </row>
@@ -2608,17 +2600,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>138669</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Курьяков</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>В.Н.</t>
+          <t>Л.А.</t>
         </is>
       </c>
     </row>
@@ -2626,15 +2618,19 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>674140</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Чигарёв</t>
+          <t>Бурханова</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Б.Н.</t>
+          <t>Ирина Оскаровна</t>
         </is>
       </c>
     </row>
@@ -2642,19 +2638,15 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>909288</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Марутян</t>
+          <t>Оганов</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>О.О.</t>
+          <t>Г.С.</t>
         </is>
       </c>
     </row>
@@ -2662,19 +2654,15 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>221582</t>
-        </is>
-      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Петухова</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Сергей Николаевич</t>
+          <t>Марина Викторовна</t>
         </is>
       </c>
     </row>
@@ -2682,19 +2670,15 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>881447</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Юсупова</t>
+          <t>Чигарёв</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Искра Фаиковна</t>
+          <t>Б.Н.</t>
         </is>
       </c>
     </row>
@@ -2704,17 +2688,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1045116</t>
+          <t>484931</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Приходько</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>В.Л.</t>
         </is>
       </c>
     </row>
@@ -2724,17 +2708,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1134023</t>
+          <t>59816</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Дмитрий Леонидович</t>
+          <t>Анатолий Николаевич</t>
         </is>
       </c>
     </row>
@@ -2744,17 +2728,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>147756</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Zakharova</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Игорь Васильевич</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -2762,19 +2746,15 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>1181957</t>
-        </is>
-      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Шакиров</t>
+          <t>Бухарин</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Равиль Рамильевич</t>
+          <t>Михаил Андреевич</t>
         </is>
       </c>
     </row>
@@ -2784,17 +2764,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>655056</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Sizov</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>С.А.</t>
+          <t>O.</t>
         </is>
       </c>
     </row>
@@ -2804,17 +2784,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>318881</t>
+          <t>1156414</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t>Макаренко</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Елизавета Валерьевна</t>
         </is>
       </c>
     </row>
@@ -2824,17 +2804,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>607750</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Семигласов</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Дмитрий Юрьевич</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -2842,19 +2822,15 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>968113</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Утопленников</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Владимир Константинович</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -2864,17 +2840,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>996419</t>
+          <t>62552</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Рыбальченко</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>В.В.</t>
+          <t>Александр Михайлович</t>
         </is>
       </c>
     </row>
@@ -2884,17 +2860,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>697348</t>
+          <t>59816</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Базаревская</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -2902,15 +2878,19 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1160650</t>
+        </is>
+      </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Шелепов</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Валентин Васильевич</t>
+          <t>Яна Степановна</t>
         </is>
       </c>
     </row>
@@ -2918,15 +2898,19 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>654135</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Оганов</t>
+          <t>Риле</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Г.С.</t>
+          <t>Елена Борисовна</t>
         </is>
       </c>
     </row>
@@ -2934,19 +2918,15 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>588413</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Bogdanov</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Елена Александровна</t>
+          <t>V.</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2936,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>59235</t>
+          <t>12271</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Любушин</t>
+          <t>Куликов</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Алексей Александрович</t>
+          <t>В.Д.</t>
         </is>
       </c>
     </row>
@@ -2974,15 +2954,19 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>923755</t>
+        </is>
+      </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Гордеева</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Ольга Владимировна</t>
+          <t>Л.М.</t>
         </is>
       </c>
     </row>
@@ -2992,17 +2976,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1134643</t>
+          <t>594065</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Самохвалов</t>
+          <t>Хитров</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Н.И.</t>
+          <t>Алексей Михайлович</t>
         </is>
       </c>
     </row>
@@ -3010,19 +2994,15 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>925717</t>
-        </is>
-      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Архипов</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Алексей Игоревич</t>
+          <t>Сергей Петрович</t>
         </is>
       </c>
     </row>
@@ -3030,15 +3010,19 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>6070</t>
+        </is>
+      </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Хаматов</t>
+          <t>Махутов</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>А.Р.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -3048,17 +3032,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>529321</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Fedorov</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Эльвира Ромуальдовна</t>
+          <t>R.Yu.</t>
         </is>
       </c>
     </row>
@@ -3068,17 +3052,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>923755</t>
+          <t>1090050</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Л.М.</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -3088,17 +3072,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>820348</t>
+          <t>523822</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Гогоненков</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Михаил Константинович</t>
+          <t>Георгий Николаевич</t>
         </is>
       </c>
     </row>
@@ -3106,19 +3090,15 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>1108922</t>
-        </is>
-      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Данилова</t>
+          <t>Маврикиди</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Елена Михайловна</t>
+          <t>Федор Иванович</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3108,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>62552</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Fedorov</t>
+          <t>Свалов</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>R.Yu.</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -3148,17 +3128,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>221582</t>
+          <t>70016</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Попов</t>
+          <t>Михайлов</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>С.Н.</t>
+          <t>Николай Нилович</t>
         </is>
       </c>
     </row>
@@ -3166,19 +3146,15 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>674140</t>
-        </is>
-      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Куандыков</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Ирина Оскаровна</t>
+          <t>Балтабек Муханович</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3164,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1016841</t>
+          <t>42271</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Залятдинов</t>
+          <t>Скрипкин</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Антон Геннадьевич</t>
         </is>
       </c>
     </row>
@@ -3208,17 +3184,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>69927</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Федонкин</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>С.Г.</t>
+          <t>Михаил Александрович</t>
         </is>
       </c>
     </row>
@@ -3226,15 +3202,19 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>940368</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Rodygina</t>
+          <t>Токарев</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>N.</t>
+          <t>Михаил Юрьевич</t>
         </is>
       </c>
     </row>
@@ -3242,19 +3222,15 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>345331</t>
-        </is>
-      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Коваленко</t>
+          <t>Чеботарева</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>К.В.</t>
+          <t>И.Я.</t>
         </is>
       </c>
     </row>
@@ -3262,15 +3238,19 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>841206</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Федаш</t>
+          <t>Студеникина</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Анатолий Владимирович</t>
+          <t>Людмила Алексеевна</t>
         </is>
       </c>
     </row>
@@ -3278,15 +3258,19 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>733450</t>
+        </is>
+      </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Соколова</t>
+          <t>Крючков</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Максим Викторович</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3280,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>331900</t>
+          <t>529222</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Индрупский</t>
+          <t>Якубсон</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>И.М.</t>
+          <t>К.И.</t>
         </is>
       </c>
     </row>
@@ -3314,15 +3298,19 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1180298</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Толмачева</t>
+          <t>Сурначёв</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Е.В.</t>
+          <t>Д.В.</t>
         </is>
       </c>
     </row>
@@ -3330,19 +3318,15 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>1195322</t>
-        </is>
-      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Дмитриевский</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Дмитрий Сергеевич</t>
+          <t>А.Н.</t>
         </is>
       </c>
     </row>
@@ -3352,17 +3336,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>563529</t>
+          <t>152569</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Kuryakov</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>G.</t>
+          <t>V.N.</t>
         </is>
       </c>
     </row>
@@ -3370,15 +3354,19 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>103971</t>
+        </is>
+      </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Магомедгаджиева</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>М.А.</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -3386,19 +3374,15 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>59816</t>
-        </is>
-      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Шульгин</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>Павел Алексеевич</t>
         </is>
       </c>
     </row>
@@ -3406,15 +3390,19 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>979172</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Краус</t>
+          <t>Афанасьева</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Зоя Тимофеевна</t>
+          <t>Мария Александровна</t>
         </is>
       </c>
     </row>
@@ -3424,17 +3412,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t>816046</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Степанкина</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Александр Дмитриевич</t>
+          <t>Ольга Александровна</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3433,12 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Космачева</t>
+          <t>Mattingsdal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>М.С.</t>
+          <t>R.</t>
         </is>
       </c>
     </row>
@@ -3458,15 +3446,19 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>445526</t>
+        </is>
+      </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Черных</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>С.П.</t>
+          <t>Андрей</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3468,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>70016</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Михайлов</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Николай Нилович</t>
+          <t>М.В.</t>
         </is>
       </c>
     </row>
@@ -3496,17 +3488,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1135782</t>
+          <t>119121</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Бакиров</t>
+          <t>Демченко</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Нияз Радилович</t>
+          <t>Н.П.</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3508,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>396398</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Александр Иванович</t>
+          <t>Сергей Николаевич</t>
         </is>
       </c>
     </row>
@@ -3534,15 +3526,19 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>332465</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Бухарин</t>
+          <t>Исаева</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Михаил Андреевич</t>
+          <t>Гюльнара Юсуповна</t>
         </is>
       </c>
     </row>
@@ -3550,15 +3546,19 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>909288</t>
+        </is>
+      </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Kuzmin</t>
+          <t>Марутян</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>V.A.</t>
+          <t>О.О.</t>
         </is>
       </c>
     </row>
@@ -3568,17 +3568,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>588413</t>
+          <t>811069</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Сидорчук</t>
+          <t>Nikonov</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>R.</t>
         </is>
       </c>
     </row>
@@ -3588,17 +3588,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>924651</t>
+          <t>59800</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Гельфгат</t>
+          <t>Волож</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Михаил Яковлевич</t>
+          <t>Ю.А.</t>
         </is>
       </c>
     </row>
@@ -3608,17 +3608,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>598915</t>
+          <t>785395</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Крючков</t>
+          <t>Печкина</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Виктор Алексеевич</t>
+          <t>Юлия Александровна</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Юсифов</t>
+          <t>Щукин</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Рауф Юсифович</t>
+          <t>Г.Г.</t>
         </is>
       </c>
     </row>
@@ -3644,17 +3644,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>276872</t>
+          <t>1160650</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Сбитнева</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Василий Игоревич</t>
+          <t>Я.С.</t>
         </is>
       </c>
     </row>
@@ -3662,15 +3662,19 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1090961</t>
+        </is>
+      </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>М.П.</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3684,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>58179</t>
+          <t>1045116</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Novikov</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Николай Владиславович</t>
         </is>
       </c>
     </row>
@@ -3698,15 +3702,19 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>60304</t>
+        </is>
+      </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Рен</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Шаоран</t>
+          <t>Михаил Владимирович</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3724,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>975548</t>
+          <t>926259</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Глотов</t>
+          <t>Бороздин</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Антон Васильевич</t>
+          <t>С.О.</t>
         </is>
       </c>
     </row>
@@ -3734,15 +3742,19 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1079671</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Lebedev</t>
+          <t>Столяров</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>V.V.</t>
+          <t>В.Е.</t>
         </is>
       </c>
     </row>
@@ -3750,15 +3762,19 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>979019</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Лобжанидзе</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Н.Е.</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3785,12 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Гулиев</t>
+          <t>Кашапов</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Ибрагим Саидович</t>
+          <t>И.Х.</t>
         </is>
       </c>
     </row>
@@ -3782,15 +3798,19 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1198013</t>
+        </is>
+      </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Халиуллин</t>
+          <t>Муминов</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Т.Ф.</t>
+          <t>Сардорбек Абдулахат Угли</t>
         </is>
       </c>
     </row>
@@ -3800,17 +3820,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>819133</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Корнилова</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -3820,17 +3840,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1003999</t>
+          <t>534346</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Алали</t>
+          <t>Пунанова</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Валид</t>
+          <t>Светлана Александровна</t>
         </is>
       </c>
     </row>
@@ -3838,15 +3858,19 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1073107</t>
+        </is>
+      </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Patton</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>H.</t>
+          <t>Елисавета Александровна</t>
         </is>
       </c>
     </row>
@@ -3854,19 +3878,15 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>602242</t>
-        </is>
-      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Butakov</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>O.</t>
+          <t>D.K.</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3896,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>842607</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Chigarev</t>
+          <t>Лындин</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>B.N.</t>
+          <t>Виктор Николаевич</t>
         </is>
       </c>
     </row>
@@ -3897,12 +3917,12 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Хафизов</t>
+          <t>Снохин</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>С.Ф.</t>
+          <t>Алексей Александрович</t>
         </is>
       </c>
     </row>
@@ -3912,17 +3932,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>752159</t>
+          <t>58179</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Дзюбло</t>
+          <t>Novikov</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -3930,15 +3950,19 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>720479</t>
+        </is>
+      </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Каушанский</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Дина Сергеевна</t>
+          <t>Давид Аронович</t>
         </is>
       </c>
     </row>
@@ -3948,17 +3972,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1067241</t>
+          <t>710603</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Алексеева</t>
+          <t>Климов</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>К.В.</t>
+          <t>Д.С.</t>
         </is>
       </c>
     </row>
@@ -3968,17 +3992,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>612772</t>
+          <t>968113</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Дроздов</t>
+          <t>Утопленников</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>Владимир Константинович</t>
         </is>
       </c>
     </row>
@@ -3988,17 +4012,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>975561</t>
+          <t>460222</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Kazanin</t>
+          <t>Федорова</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Елена Борисовна</t>
         </is>
       </c>
     </row>
@@ -4006,19 +4030,15 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>1146</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Федонкин</t>
+          <t>Дедученко</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Михаил Александрович</t>
+          <t>Ф.М.</t>
         </is>
       </c>
     </row>
@@ -4028,17 +4048,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>143647</t>
+          <t>113090</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Скибицкая</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Наталья Александровна</t>
+          <t>Наталья Евгеньевна</t>
         </is>
       </c>
     </row>
@@ -4046,19 +4066,15 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>62552</t>
-        </is>
-      </c>
+      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Роде</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Э.Д.</t>
         </is>
       </c>
     </row>
@@ -4066,19 +4082,15 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>321532</t>
-        </is>
-      </c>
+      <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Жеребятьева</t>
+          <t>Горева</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -4088,17 +4100,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>761852</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Ерофеева</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Ольга Валерьевна</t>
+          <t>Ирина Владимировна</t>
         </is>
       </c>
     </row>
@@ -4106,19 +4118,15 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>1113614</t>
-        </is>
-      </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Коновалова</t>
+          <t>Соколова</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Ирина Николаевна</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -4126,15 +4134,19 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>926628</t>
+        </is>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Дедученко</t>
+          <t>Сребродольская</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ф.М.</t>
+          <t>Мария Андреевна</t>
         </is>
       </c>
     </row>
@@ -4144,17 +4156,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>167357</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Safonov</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>А.</t>
         </is>
       </c>
     </row>
@@ -4164,17 +4176,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>62552</t>
+          <t>167357</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Свалов</t>
+          <t>Safonov</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Александр Михайлович</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -4182,15 +4194,19 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1127117</t>
+        </is>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Кашапов</t>
+          <t>Гарифуллина</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>И.Х.</t>
+          <t>Ч.А.</t>
         </is>
       </c>
     </row>
@@ -4200,17 +4216,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>529321</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Кишанков</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Алексей Владимирович</t>
+          <t>Эльвира Ромуальдовна</t>
         </is>
       </c>
     </row>
@@ -4218,15 +4234,19 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>697348</t>
+        </is>
+      </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Базаревская</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Геннадий Алексеевич</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -4236,17 +4256,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1112592</t>
+          <t>811069</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Земляновский</t>
+          <t>Никонов</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>Роман Александрович</t>
         </is>
       </c>
     </row>
@@ -4256,17 +4276,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>60758</t>
+          <t>804891</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Кузьмин</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Ирина Яковлевна</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -4277,12 +4297,12 @@
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Kats</t>
+          <t>Василенко</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>E.I.</t>
+          <t>П.А.</t>
         </is>
       </c>
     </row>
@@ -4290,19 +4310,15 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>324542</t>
-        </is>
-      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Закиров</t>
+          <t>Егоров</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Э.С.</t>
+          <t>Денис Сергеевич</t>
         </is>
       </c>
     </row>
@@ -4312,17 +4328,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1090961</t>
+          <t>120886</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Rasputina</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -4332,17 +4348,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>218196</t>
+          <t>1112796</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Бурлуцкий</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Олег Владимирович</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -4350,15 +4366,19 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>132561</t>
+        </is>
+      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Соромотин</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>А.С.</t>
+          <t>А.</t>
         </is>
       </c>
     </row>
@@ -4366,19 +4386,15 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>1084975</t>
-        </is>
-      </c>
+      <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Филиппова</t>
+          <t>Скворцов</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Дина Сергеевна</t>
+          <t>Андрей Сергеевич</t>
         </is>
       </c>
     </row>
@@ -4388,17 +4404,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>534341</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Богоявленский</t>
+          <t>Сотникова</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>А.Г.</t>
         </is>
       </c>
     </row>
@@ -4406,19 +4422,15 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>926259</t>
-        </is>
-      </c>
+      <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Бороздин</t>
+          <t>Богомолов</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>С.О.</t>
+          <t>Павел Владимирович</t>
         </is>
       </c>
     </row>
@@ -4426,19 +4438,15 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>167593</t>
-        </is>
-      </c>
+      <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Никулин</t>
+          <t>Богданов</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Б.А.</t>
+          <t>Б.П.</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4457,12 @@
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Чудин</t>
+          <t>Родкин</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Егор Александрович</t>
+          <t>М.В.</t>
         </is>
       </c>
     </row>
@@ -4462,15 +4470,19 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>324542</t>
+        </is>
+      </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Bogdanov</t>
+          <t>Zakirov</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -4478,15 +4490,19 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>174752</t>
+        </is>
+      </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Lavrinovich</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>E.</t>
         </is>
       </c>
     </row>
@@ -4496,17 +4512,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1112796</t>
+          <t>588398</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Бурлуцкий</t>
+          <t>Навроцкий</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Е.А.</t>
+          <t>О.К.</t>
         </is>
       </c>
     </row>
@@ -4514,19 +4530,15 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>64377</t>
-        </is>
-      </c>
+      <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Черников</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>К.С.</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -4534,19 +4546,15 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>595034</t>
-        </is>
-      </c>
+      <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Chernyshov</t>
+          <t>Черных</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>С.П.</t>
         </is>
       </c>
     </row>
@@ -4554,19 +4562,15 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>69386</t>
-        </is>
-      </c>
+      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Милетенко</t>
+          <t>Халиуллин</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Николай Васильевич</t>
+          <t>Т.Ф.</t>
         </is>
       </c>
     </row>
@@ -4574,19 +4578,15 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>221582</t>
-        </is>
-      </c>
+      <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Popov</t>
+          <t>Куклина</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Sergey</t>
+          <t>Вера Владимировна</t>
         </is>
       </c>
     </row>
@@ -4594,19 +4594,15 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>1075365</t>
-        </is>
-      </c>
+      <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Юмашева</t>
+          <t>Шелепов</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Анастасия Константиновна</t>
+          <t>Валентин Васильевич</t>
         </is>
       </c>
     </row>
@@ -4616,17 +4612,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>445526</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Федоров</t>
+          <t>Сумин</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Роман Юрьевич</t>
+          <t>А.М.</t>
         </is>
       </c>
     </row>
@@ -4634,15 +4630,19 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>783485</t>
+        </is>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Елагин</t>
+          <t>Патина</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>П.О.</t>
+          <t>И.С.</t>
         </is>
       </c>
     </row>
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>733450</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Крючков</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Максим Викторович</t>
+          <t>С.Е.</t>
         </is>
       </c>
     </row>
@@ -4670,19 +4670,15 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>138669</t>
-        </is>
-      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Лейла Азретовна</t>
+          <t>Алексей Геннадьевич</t>
         </is>
       </c>
     </row>
@@ -4692,17 +4688,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>59800</t>
+          <t>852301</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Остапчук</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Ю.А.</t>
+          <t>С.С.</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4709,12 @@
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Куклина</t>
+          <t>Магомедгаджиева</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Вера Владимировна</t>
+          <t>М.А.</t>
         </is>
       </c>
     </row>
@@ -4728,17 +4724,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1180298</t>
+          <t>1154710</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Сурначев</t>
+          <t>Валиуллин</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Дмитрий Владимирович</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4745,12 @@
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Шульгин</t>
+          <t>Суслов</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Павел Алексеевич</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -4764,17 +4760,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>811069</t>
+          <t>1113614</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Никонов</t>
+          <t>Коновалова</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Роман Александрович</t>
+          <t>Ирина Николаевна</t>
         </is>
       </c>
     </row>
@@ -4785,12 +4781,12 @@
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Космачева</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>М.С.</t>
         </is>
       </c>
     </row>
@@ -4800,17 +4796,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>460222</t>
+          <t>607750</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Федорова</t>
+          <t>Семигласов</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Елена Борисовна</t>
+          <t>Дмитрий Юрьевич</t>
         </is>
       </c>
     </row>
@@ -4820,17 +4816,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>783485</t>
+          <t>1176378</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Патина</t>
+          <t>Драбкина</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>И.С.</t>
+          <t>Анастасия Дмитриевна</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4837,12 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Соловьев</t>
+          <t>Patton</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Тимур Игоревич</t>
+          <t>H.</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4853,12 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Гумерова</t>
+          <t>Епишов</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Р.Р.</t>
+          <t>А.П.</t>
         </is>
       </c>
     </row>
@@ -4872,17 +4868,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1090050</t>
+          <t>588413</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>Елена Александровна</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4889,12 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Горева</t>
+          <t>Юсифов</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>Рауф Юсифович</t>
         </is>
       </c>
     </row>
@@ -4906,19 +4902,15 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>930998</t>
-        </is>
-      </c>
+      <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Штопаков</t>
+          <t>Рен</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Игорь Евгеньевич</t>
+          <t>Шаоран</t>
         </is>
       </c>
     </row>
@@ -4928,17 +4920,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1062006</t>
+          <t>1112592</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Капитонова</t>
+          <t>Земляновский</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>И.Л.</t>
+          <t>В.А.</t>
         </is>
       </c>
     </row>
@@ -4946,19 +4938,15 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>529321</t>
-        </is>
-      </c>
+      <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Казанкова</t>
+          <t>Кульпин</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Э.Р.</t>
+          <t>Д.Л.</t>
         </is>
       </c>
     </row>
@@ -4966,15 +4954,19 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>251756</t>
+        </is>
+      </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Казанин</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>А.Г.</t>
+          <t>Андрей Владимирович</t>
         </is>
       </c>
     </row>
@@ -4982,19 +4974,15 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>720479</t>
-        </is>
-      </c>
+      <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Каушанский</t>
+          <t>Паэглит</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Давид Аронович</t>
+          <t>С.И.</t>
         </is>
       </c>
     </row>
@@ -5005,12 +4993,12 @@
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Могучева</t>
+          <t>Зарипова</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Екатерина Александровна</t>
+          <t>Л.Ф.</t>
         </is>
       </c>
     </row>
@@ -5020,17 +5008,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>445526</t>
+          <t>799191</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Сумин</t>
+          <t>Пятибратов</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Петр Вадимович</t>
         </is>
       </c>
     </row>
@@ -5040,17 +5028,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>152569</t>
+          <t>1195322</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Kuryakov</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>V.N.</t>
+          <t>Дмитрий Сергеевич</t>
         </is>
       </c>
     </row>
@@ -5060,17 +5048,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>69927</t>
+          <t>132561</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Корниенко</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Сергей Гельевич</t>
+          <t>Алексей Михайлович</t>
         </is>
       </c>
     </row>
@@ -5078,19 +5066,15 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>841215</t>
-        </is>
-      </c>
+      <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Телегина</t>
+          <t>Левдик</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Елена Александровна</t>
+          <t>Всеволод Николаевич</t>
         </is>
       </c>
     </row>
@@ -5098,19 +5082,15 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>819133</t>
-        </is>
-      </c>
+      <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Корнилова</t>
+          <t>Мо</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Н.В.</t>
+          <t>Цзяли</t>
         </is>
       </c>
     </row>
@@ -5118,15 +5098,19 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1051084</t>
+        </is>
+      </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Зинатуллина</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>М.В.</t>
+          <t>Лилия Ильдаровна</t>
         </is>
       </c>
     </row>
@@ -5136,17 +5120,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>743652</t>
+          <t>588413</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Гусейнов</t>
+          <t>Сидорчук</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Чингиз Саибович</t>
+          <t>Е.А.</t>
         </is>
       </c>
     </row>
@@ -5156,17 +5140,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>602242</t>
+          <t>563529</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Sizov</t>
+          <t>Kazanin</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>O.S.</t>
+          <t>G.</t>
         </is>
       </c>
     </row>
@@ -5174,19 +5158,15 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>893978</t>
-        </is>
-      </c>
+      <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Ершов</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Алексей Валентинович</t>
+          <t>А.Г.</t>
         </is>
       </c>
     </row>
@@ -5194,15 +5174,19 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1016841</t>
+        </is>
+      </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Закирова</t>
+          <t>Залятдинов</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Милена Римовна</t>
+          <t>А.А.</t>
         </is>
       </c>
     </row>
@@ -5210,19 +5194,15 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>12271</t>
-        </is>
-      </c>
+      <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Куликов</t>
+          <t>Могучева</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>В.Д.</t>
+          <t>Екатерина Александровна</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5213,12 @@
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Serov</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>А.Н.</t>
+          <t>P.</t>
         </is>
       </c>
     </row>
@@ -5248,17 +5228,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Чигарев</t>
+          <t>Gladkikh</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Борис</t>
+          <t>Evgeniy</t>
         </is>
       </c>
     </row>
@@ -5268,17 +5248,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>940368</t>
+          <t>708974</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Токарев</t>
+          <t>Юрова</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Михаил Юрьевич</t>
+          <t>Маргарита Павловна</t>
         </is>
       </c>
     </row>
@@ -5288,17 +5268,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>546858</t>
+          <t>1075365</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Брусиловский</t>
+          <t>Юмашева</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>А.И.</t>
+          <t>Анастасия Константиновна</t>
         </is>
       </c>
     </row>
@@ -5306,15 +5286,19 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1062006</t>
+        </is>
+      </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Рыбаков</t>
+          <t>Капитонова</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Р.А.</t>
+          <t>Ирина Леонидовна</t>
         </is>
       </c>
     </row>
@@ -5324,17 +5308,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>466464</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Родкин</t>
+          <t>Хисамов</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Михаил Владимирович</t>
+          <t>Р.С.</t>
         </is>
       </c>
     </row>
@@ -5342,19 +5326,15 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>655056</t>
-        </is>
-      </c>
+      <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Добрынина</t>
+          <t>Мичугин</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>Максим Сергеевич</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5345,12 @@
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Muratov</t>
+          <t>Давыденко</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>A.R.</t>
+          <t>Б.И.</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5361,12 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Роде</t>
+          <t>Толмачева</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Э.Д.</t>
+          <t>Е.В.</t>
         </is>
       </c>
     </row>
@@ -5396,17 +5376,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>849344</t>
+          <t>807087</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Басниева</t>
+          <t>Гладких</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Ирина Каплановна</t>
+          <t>Евгений Александрович</t>
         </is>
       </c>
     </row>
@@ -5416,17 +5396,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>1090961</t>
+          <t>595034</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Колоколова</t>
+          <t>Chernyshov</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Ирина Владимировна</t>
+          <t>Sergey</t>
         </is>
       </c>
     </row>
@@ -5434,19 +5414,15 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>147756</t>
-        </is>
-      </c>
+      <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Zakharova</t>
+          <t>Дайзель</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Александр Владимирович</t>
         </is>
       </c>
     </row>
@@ -5454,19 +5430,15 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>1176378</t>
-        </is>
-      </c>
+      <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Драбкина</t>
+          <t>Замрий</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Анастасия Дмитриевна</t>
+          <t>Анатолий Владимирович</t>
         </is>
       </c>
     </row>
@@ -5476,17 +5448,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>60304</t>
+          <t>143647</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Rodkin</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>M.V.</t>
+          <t>Наталья Александровна</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5469,12 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Hubbard</t>
+          <t>Казанин</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Геннадий Алексеевич</t>
         </is>
       </c>
     </row>
@@ -5513,12 +5485,12 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Куандыков</t>
+          <t>Журавлева</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Балтабек Муханович</t>
+          <t>Л.М.</t>
         </is>
       </c>
     </row>
@@ -5528,17 +5500,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>819136</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bogoyavlensky</t>
+          <t>Еримин</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>I.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -5546,15 +5518,19 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>138669</t>
+        </is>
+      </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Антонов</t>
+          <t>Абукова</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>С.В.</t>
+          <t>Лейла Азретовна</t>
         </is>
       </c>
     </row>
@@ -5564,17 +5540,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>166698</t>
+          <t>1045116</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Жилина</t>
+          <t>Приходько</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>И.В.</t>
+          <t>Н.В.</t>
         </is>
       </c>
     </row>
@@ -5584,17 +5560,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>42271</t>
+          <t>829491</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Скрипкин</t>
+          <t>Доманова</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Антон Геннадьевич</t>
+          <t>Е.Г.</t>
         </is>
       </c>
     </row>
@@ -5602,19 +5578,15 @@
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>103971</t>
-        </is>
-      </c>
+      <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Гордеева</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>Ольга Владимировна</t>
         </is>
       </c>
     </row>
@@ -5622,19 +5594,15 @@
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>708974</t>
-        </is>
-      </c>
+      <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Юрова</t>
+          <t>Pikina</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Маргарита Павловна</t>
+          <t>E.S.</t>
         </is>
       </c>
     </row>
@@ -5644,17 +5612,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>1127117</t>
+          <t>1135782</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Гарифуллина</t>
+          <t>Бакиров</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Ч.А.</t>
+          <t>Нияз Радилович</t>
         </is>
       </c>
     </row>
@@ -5662,19 +5630,15 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>595034</t>
-        </is>
-      </c>
+      <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Kats</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Сергей Евгеньевич</t>
+          <t>E.I.</t>
         </is>
       </c>
     </row>
@@ -5684,17 +5648,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>1180298</t>
+          <t>565541</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Сурначёв</t>
+          <t>Шиловский</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Д.В.</t>
+          <t>Андрей Павлович</t>
         </is>
       </c>
     </row>
@@ -5704,17 +5668,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>778517</t>
+          <t>382667</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Большаков</t>
+          <t>Меркулов</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>М.Н.</t>
+          <t>О.И.</t>
         </is>
       </c>
     </row>
@@ -5724,17 +5688,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>59800</t>
+          <t>59255</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Волож</t>
+          <t>Гарагаш</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Юрий Абрамович</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5709,12 @@
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Дунаева</t>
+          <t>Савченко</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>В.И.</t>
+          <t>Е.Ю.</t>
         </is>
       </c>
     </row>
@@ -5758,15 +5722,19 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr"/>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1089985</t>
+        </is>
+      </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Mattingsdal</t>
+          <t>Выломов</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>R.</t>
+          <t>Денис Дмитриевич</t>
         </is>
       </c>
     </row>
@@ -5776,17 +5744,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>466464</t>
+          <t>143647</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Хисамов</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Р.С.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -5794,19 +5762,15 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>971910</t>
-        </is>
-      </c>
+      <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Бродт</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Л.В.</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -5814,15 +5778,19 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr"/>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>819136</t>
+        </is>
+      </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -5832,17 +5800,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>456276</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Тюкавкина</t>
+          <t>Popov</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>О.В.</t>
+          <t>Sergey</t>
         </is>
       </c>
     </row>
@@ -5850,15 +5818,19 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="inlineStr"/>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>595034</t>
+        </is>
+      </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Черников</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>А.Д.</t>
+          <t>Сергей Евгеньевич</t>
         </is>
       </c>
     </row>
@@ -5868,17 +5840,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1006242</t>
+          <t>996419</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Ибрагимов</t>
+          <t>Рыбальченко</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>И.И.</t>
+          <t>В.В.</t>
         </is>
       </c>
     </row>
@@ -5889,12 +5861,12 @@
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Егоров</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Денис Сергеевич</t>
+          <t>В.Г.</t>
         </is>
       </c>
     </row>
@@ -5904,17 +5876,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>608438</t>
+          <t>991650</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Кузин</t>
+          <t>Демьяновский</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>А.М.</t>
+          <t>Владимир Борисович</t>
         </is>
       </c>
     </row>
@@ -5924,17 +5896,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>59816</t>
+          <t>113090</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Дмитриевский</t>
+          <t>Лазуткина</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Анатолий Николаевич</t>
+          <t>Н.Е.</t>
         </is>
       </c>
     </row>
@@ -5942,19 +5914,15 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>64859</t>
-        </is>
-      </c>
+      <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Антипов</t>
+          <t>Чернышов</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>М.П.</t>
+          <t>Михаил Викторович</t>
         </is>
       </c>
     </row>
@@ -5962,15 +5930,19 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>849344</t>
+        </is>
+      </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Владимир Львович</t>
+          <t>И.К.</t>
         </is>
       </c>
     </row>
@@ -5978,15 +5950,19 @@
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" t="inlineStr"/>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>502793</t>
+        </is>
+      </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Селенгинский</t>
+          <t>Волков</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Дмитрий Андреевич</t>
+          <t>Д.С.</t>
         </is>
       </c>
     </row>
@@ -5997,12 +5973,12 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Еремина</t>
+          <t>Беляев</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>И.А.</t>
+          <t>С.Г.</t>
         </is>
       </c>
     </row>
@@ -6013,12 +5989,12 @@
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Полудеткина</t>
+          <t>Киль</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Елена Николаевна</t>
+          <t>Анна Олеговна</t>
         </is>
       </c>
     </row>
@@ -6026,15 +6002,19 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1199525</t>
+        </is>
+      </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Беляев</t>
+          <t>Лукова</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>С.Г.</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -6045,12 +6025,12 @@
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Антипов</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Роман Олегович</t>
+          <t>М.П.</t>
         </is>
       </c>
     </row>
@@ -6058,15 +6038,19 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="inlineStr"/>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1177993</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Петухова</t>
+          <t>Аникеева</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Марина Викторовна</t>
+          <t>Э.С.</t>
         </is>
       </c>
     </row>
@@ -6076,17 +6060,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>674140</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Бурханова</t>
+          <t>Кишанков</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>И.О.</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -6096,17 +6080,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1134023</t>
+          <t>819136</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Богоявленский</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Д.Л.</t>
+          <t>Игорь Васильевич</t>
         </is>
       </c>
     </row>
@@ -6116,17 +6100,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Попов</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Владимир Львович</t>
+          <t>С.Н.</t>
         </is>
       </c>
     </row>
@@ -6137,12 +6121,12 @@
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Kuklina</t>
+          <t>Соромотин</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>V.</t>
+          <t>А.С.</t>
         </is>
       </c>
     </row>
@@ -6152,17 +6136,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>890229</t>
+          <t>548848</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Варушкин</t>
+          <t>Богаткина</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>С.В.</t>
+          <t>Юлия Геннадьевна</t>
         </is>
       </c>
     </row>
@@ -6170,15 +6154,19 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="inlineStr"/>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>174981</t>
+        </is>
+      </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Журавлева</t>
+          <t>Кузнецов</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Л.М.</t>
+          <t>Р.О.</t>
         </is>
       </c>
     </row>
@@ -6186,15 +6174,19 @@
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" t="inlineStr"/>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>602242</t>
+        </is>
+      </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Чеботарева</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>И.Я.</t>
+          <t>Олег Сергеевич</t>
         </is>
       </c>
     </row>
@@ -6204,17 +6196,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>841206</t>
+          <t>1181957</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Студеникина</t>
+          <t>Шакиров</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Людмила Алексеевна</t>
+          <t>Равиль Рамильевич</t>
         </is>
       </c>
     </row>
@@ -6224,17 +6216,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>710603</t>
+          <t>602242</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Klimov</t>
+          <t>Сизов</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>D.</t>
+          <t>О.С.</t>
         </is>
       </c>
     </row>
@@ -6242,19 +6234,15 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>588398</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Навроцкий</t>
+          <t>Сафарова</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>О.К.</t>
+          <t>Елисавета Александровна</t>
         </is>
       </c>
     </row>
@@ -6265,12 +6253,12 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Василенко</t>
+          <t>Колоколова</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>П.А.</t>
+          <t>И.В.</t>
         </is>
       </c>
     </row>
@@ -6278,15 +6266,19 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="inlineStr"/>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>710603</t>
+        </is>
+      </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Мичугин</t>
+          <t>Klimov</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Максим Сергеевич</t>
+          <t>D.</t>
         </is>
       </c>
     </row>
@@ -6294,15 +6286,19 @@
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>778517</t>
+        </is>
+      </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Кузнецов</t>
+          <t>Большаков</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>В.Г.</t>
+          <t>М.Н.</t>
         </is>
       </c>
     </row>
@@ -6310,15 +6306,19 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>331900</t>
+        </is>
+      </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Путина</t>
+          <t>Индрупский</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>И.Б.</t>
+          <t>И.М.</t>
         </is>
       </c>
     </row>
@@ -6326,15 +6326,19 @@
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr"/>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>69927</t>
+        </is>
+      </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Пахомов</t>
+          <t>Корниенко</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Андрей Львович</t>
+          <t>Сергей Гельевич</t>
         </is>
       </c>
     </row>
@@ -6342,15 +6346,19 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="inlineStr"/>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>345331</t>
+        </is>
+      </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Коваленко</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>В.Б.</t>
+          <t>К.В.</t>
         </is>
       </c>
     </row>
@@ -6360,17 +6368,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>804891</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Кузьмин</t>
+          <t>Чигарев</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>В.А.</t>
+          <t>Б.Н.</t>
         </is>
       </c>
     </row>
@@ -6378,19 +6386,15 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>138669</t>
-        </is>
-      </c>
+      <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Абукова</t>
+          <t>Путина</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Л.А.</t>
+          <t>И.Б.</t>
         </is>
       </c>
     </row>
@@ -6398,19 +6402,15 @@
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>502793</t>
-        </is>
-      </c>
+      <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Волков</t>
+          <t>Елагин</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Д.С.</t>
+          <t>П.О.</t>
         </is>
       </c>
     </row>
@@ -6420,17 +6420,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>842607</t>
+          <t>711489</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Лындин</t>
+          <t>Сарданашвили</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Виктор Николаевич</t>
+          <t>Ольга Николаевна</t>
         </is>
       </c>
     </row>
@@ -6441,12 +6441,12 @@
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Громыко</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>В.Л.</t>
+          <t>А.В.</t>
         </is>
       </c>
     </row>
@@ -6454,19 +6454,15 @@
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>338184</t>
-        </is>
-      </c>
+      <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Kargina</t>
+          <t>Rodygina</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>T.</t>
+          <t>N.</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6473,12 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Butakov</t>
+          <t>Скибицкая</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>D.K.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6488,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>534341</t>
+          <t>569074</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Сотникова</t>
+          <t>Кривощеков</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>А.Г.</t>
+          <t>С.Н.</t>
         </is>
       </c>
     </row>
@@ -6513,12 +6509,12 @@
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Кульпин</t>
+          <t>Bünz</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Д.Л.</t>
+          <t>S.</t>
         </is>
       </c>
     </row>
@@ -6528,17 +6524,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>484931</t>
+          <t>168284</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Шустер</t>
+          <t>Самойлова</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>В.Л.</t>
+          <t>Анна Васильевна</t>
         </is>
       </c>
     </row>
@@ -6548,17 +6544,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>1057679</t>
+          <t>881447</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Кишанков</t>
+          <t>Юсупова</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>А.В.</t>
+          <t>Искра Фаиковна</t>
         </is>
       </c>
     </row>
@@ -6566,19 +6562,15 @@
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>1160650</t>
-        </is>
-      </c>
+      <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Сбитнева</t>
+          <t>Дунаева</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Яна Степановна</t>
+          <t>В.И.</t>
         </is>
       </c>
     </row>
@@ -6586,15 +6578,19 @@
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" t="inlineStr"/>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>819136</t>
+        </is>
+      </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Богомолов</t>
+          <t>Bogoyavlensky</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Павел Владимирович</t>
+          <t>I.</t>
         </is>
       </c>
     </row>
@@ -6602,15 +6598,19 @@
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="inlineStr"/>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>743652</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Ростовщиков</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Владимир Борисович</t>
+          <t>Чингиз Саибович</t>
         </is>
       </c>
     </row>
@@ -6618,19 +6618,15 @@
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>598399</t>
-        </is>
-      </c>
+      <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Молоков</t>
+          <t>Соин</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Петр Борисович</t>
+          <t>Д.А.</t>
         </is>
       </c>
     </row>
@@ -6638,19 +6634,15 @@
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>132561</t>
-        </is>
-      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>А.</t>
+          <t>Полина Николаевна</t>
         </is>
       </c>
     </row>
@@ -6660,17 +6652,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>991650</t>
+          <t>752159</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Дзюбло</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>В.Б.</t>
+          <t>А.Д.</t>
         </is>
       </c>
     </row>
@@ -6678,19 +6670,15 @@
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>816046</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Степанкина</t>
+          <t>Воробьева</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Ольга Александровна</t>
+          <t>Г.Н.</t>
         </is>
       </c>
     </row>
@@ -6698,15 +6686,19 @@
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>656521</t>
+        </is>
+      </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Агзамов</t>
+          <t>Лесин</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Виктор Иванович</t>
         </is>
       </c>
     </row>
@@ -6716,17 +6708,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>830581</t>
+          <t>655056</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Попова</t>
+          <t>Добрынина</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Марина Николаевна</t>
+          <t>С.А.</t>
         </is>
       </c>
     </row>
@@ -6734,19 +6726,15 @@
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>594065</t>
-        </is>
-      </c>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Хитров</t>
+          <t>Petrov</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Алексей Михайлович</t>
+          <t>A.N.</t>
         </is>
       </c>
     </row>
@@ -6754,19 +6742,15 @@
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>908621</t>
-        </is>
-      </c>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Пуго</t>
+          <t>Еремина</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Т.А.</t>
+          <t>И.А.</t>
         </is>
       </c>
     </row>
@@ -6776,17 +6760,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>646094</t>
+          <t>318881</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Мелехин</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>А.А.</t>
+          <t>Н.А.</t>
         </is>
       </c>
     </row>
@@ -6794,19 +6778,15 @@
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>534346</t>
-        </is>
-      </c>
+      <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Пунанова</t>
+          <t>Kuzmin</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Светлана Александровна</t>
+          <t>V.A.</t>
         </is>
       </c>
     </row>
@@ -6816,17 +6796,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>132561</t>
+          <t>926031</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Пономаренко</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Алексей Михайлович</t>
+          <t>О.М.</t>
         </is>
       </c>
     </row>
@@ -6836,17 +6816,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>711489</t>
+          <t>1108922</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Сарданашвили</t>
+          <t>Данилова</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Ольга Николаевна</t>
+          <t>Елена Михайловна</t>
         </is>
       </c>
     </row>
@@ -6854,15 +6834,19 @@
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="inlineStr"/>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>820348</t>
+        </is>
+      </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Грунис</t>
+          <t>Тупысев</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Е.Б.</t>
+          <t>Михаил Константинович</t>
         </is>
       </c>
     </row>
@@ -6870,19 +6854,15 @@
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>168284</t>
-        </is>
-      </c>
+      <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Самойлова</t>
+          <t>Остапенко</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Анна Васильевна</t>
+          <t>Денис Андреевич</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6873,12 @@
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Мо</t>
+          <t>Краус</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Цзяли</t>
+          <t>Зоя Тимофеевна</t>
         </is>
       </c>
     </row>
@@ -6906,15 +6886,19 @@
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>696074</t>
+        </is>
+      </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Маврикиди</t>
+          <t>Халова</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Федор Иванович</t>
+          <t>Гюльнар Османовна</t>
         </is>
       </c>
     </row>
@@ -6922,19 +6906,15 @@
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>820348</t>
-        </is>
-      </c>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Тупысев</t>
+          <t>Skibitskaya</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>М.К.</t>
+          <t>N.A.</t>
         </is>
       </c>
     </row>
@@ -6944,17 +6924,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>829491</t>
+          <t>1067241</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Доманова</t>
+          <t>Алексеева</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Е.Г.</t>
+          <t>К.В.</t>
         </is>
       </c>
     </row>
@@ -6962,15 +6942,19 @@
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" t="inlineStr"/>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>110737</t>
+        </is>
+      </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Соин</t>
+          <t>Федоров</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Д.А.</t>
+          <t>Роман Юрьевич</t>
         </is>
       </c>
     </row>
@@ -6978,15 +6962,19 @@
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" t="inlineStr"/>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>132561</t>
+        </is>
+      </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Максимов</t>
+          <t>Мастепанов</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>А.Л.</t>
+          <t>Алексей</t>
         </is>
       </c>
     </row>
@@ -6996,17 +6984,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>991650</t>
+          <t>1006242</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Демьяновский</t>
+          <t>Ибрагимов</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Владимир Борисович</t>
+          <t>И.И.</t>
         </is>
       </c>
     </row>
@@ -7014,15 +7002,19 @@
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" t="inlineStr"/>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>104322</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Садреева</t>
+          <t>Chigarev</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Р.Х.</t>
+          <t>B.N.</t>
         </is>
       </c>
     </row>
@@ -7032,17 +7024,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>529222</t>
+          <t>338184</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Якубсон</t>
+          <t>Kargina</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>К.И.</t>
+          <t>T.</t>
         </is>
       </c>
     </row>
@@ -7052,17 +7044,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>524537</t>
+          <t>849344</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Zimina</t>
+          <t>Басниева</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>O.Yu.</t>
+          <t>Ирина Каплановна</t>
         </is>
       </c>
     </row>
@@ -7072,17 +7064,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>120886</t>
+          <t>218196</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Rasputina</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>E.</t>
+          <t>Олег Владимирович</t>
         </is>
       </c>
     </row>
@@ -7090,15 +7082,19 @@
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>770074</t>
+        </is>
+      </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>Krasnoshtanova</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>A.N.</t>
+          <t>N.</t>
         </is>
       </c>
     </row>
@@ -7106,15 +7102,19 @@
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1003999</t>
+        </is>
+      </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Чернышов</t>
+          <t>Алали</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Михаил Викторович</t>
+          <t>Валид</t>
         </is>
       </c>
     </row>
@@ -7124,17 +7124,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>956325</t>
+          <t>1180298</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Tsymbarovich</t>
+          <t>Сурначев</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>P.R.</t>
+          <t>Дмитрий Владимирович</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7145,12 @@
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Зарипова</t>
+          <t>Шустер</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Л.Ф.</t>
+          <t>Владимир Львович</t>
         </is>
       </c>
     </row>
@@ -7158,19 +7158,15 @@
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>6070</t>
-        </is>
-      </c>
+      <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Махутов</t>
+          <t>Селенгинский</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Н.А.</t>
+          <t>Дмитрий Андреевич</t>
         </is>
       </c>
     </row>
@@ -7178,15 +7174,19 @@
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" t="inlineStr"/>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>529321</t>
+        </is>
+      </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Богаткина</t>
+          <t>Казанкова</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Юлия Геннадьевна</t>
+          <t>Э.Р.</t>
         </is>
       </c>
     </row>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>569074</t>
+          <t>60304</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Кривощеков</t>
+          <t>Rodkin</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Сергей Николаевич</t>
+          <t>M.V.</t>
         </is>
       </c>
     </row>
@@ -7214,19 +7214,15 @@
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>132561</t>
-        </is>
-      </c>
+      <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Мастепанов</t>
+          <t>Рыбаков</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Р.А.</t>
         </is>
       </c>
     </row>
@@ -7236,17 +7232,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>65352</t>
+          <t>1057679</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Рыбалко</t>
+          <t>Kishankov</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Александр Евменьевич</t>
+          <t>A.</t>
         </is>
       </c>
     </row>
@@ -7257,12 +7253,12 @@
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Остапенко</t>
+          <t>Федаш</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Денис Андреевич</t>
+          <t>Анатолий Владимирович</t>
         </is>
       </c>
     </row>
@@ -7270,15 +7266,39 @@
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>743652</t>
+        </is>
+      </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Алиева</t>
+          <t>Гусейнов</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Л.А.</t>
+          <t>Ч.С.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1076517</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Emel'yanov</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>A.</t>
         </is>
       </c>
     </row>
